--- a/Alljob.xlsx
+++ b/Alljob.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-84960" yWindow="0" windowWidth="26140" windowHeight="23060" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="1280" windowWidth="17500" windowHeight="22580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Alljobs.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="13">
   <si>
     <t>Day #</t>
   </si>
@@ -124,8 +124,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="371">
+  <cellStyleXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -505,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="371">
+  <cellStyles count="407">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -691,6 +727,24 @@
     <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -876,9 +930,557 @@
     <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="84">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1516,16 +2118,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1098"/>
+  <dimension ref="A1:F1170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1079" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A1081" sqref="A1081"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A715" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E725" sqref="E725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="5.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16832,7 +17436,7 @@
       <c r="E727" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F727" s="5" t="s">
+      <c r="F727" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -16853,7 +17457,7 @@
       <c r="E728" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F728" s="5" t="s">
+      <c r="F728" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17525,7 +18129,7 @@
       <c r="E760" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F760" s="5" t="s">
+      <c r="F760" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18407,7 +19011,7 @@
       <c r="E802" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F802" s="5" t="s">
+      <c r="F802" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -19226,7 +19830,7 @@
       <c r="E841" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F841" s="5" t="s">
+      <c r="F841" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -19289,7 +19893,7 @@
       <c r="E844" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F844" s="5" t="s">
+      <c r="F844" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -19373,7 +19977,7 @@
       <c r="E848" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F848" s="5" t="s">
+      <c r="F848" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -19484,19 +20088,19 @@
     </row>
     <row r="854" spans="1:6">
       <c r="A854">
-        <f>A853+1</f>
+        <f t="shared" ref="A854:A879" si="15">A853+1</f>
         <v>122</v>
       </c>
       <c r="B854" s="2">
-        <f>B853+1</f>
+        <f t="shared" ref="B854:B879" si="16">B853+1</f>
         <v>40299</v>
       </c>
       <c r="C854" s="2">
-        <f>C853+1</f>
+        <f t="shared" ref="C854:C879" si="17">C853+1</f>
         <v>40298</v>
       </c>
       <c r="D854" s="1">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E854" s="1" t="b">
         <v>0</v>
@@ -19507,19 +20111,19 @@
     </row>
     <row r="855" spans="1:6">
       <c r="A855">
-        <f>A854+1</f>
+        <f t="shared" si="15"/>
         <v>123</v>
       </c>
       <c r="B855" s="2">
-        <f>B854+1</f>
+        <f t="shared" si="16"/>
         <v>40300</v>
       </c>
       <c r="C855" s="2">
-        <f>C854+1</f>
+        <f t="shared" si="17"/>
         <v>40299</v>
       </c>
       <c r="D855" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E855" s="1" t="b">
         <v>0</v>
@@ -19530,19 +20134,19 @@
     </row>
     <row r="856" spans="1:6">
       <c r="A856">
-        <f>A855+1</f>
+        <f t="shared" si="15"/>
         <v>124</v>
       </c>
       <c r="B856" s="2">
-        <f>B855+1</f>
+        <f t="shared" si="16"/>
         <v>40301</v>
       </c>
       <c r="C856" s="2">
-        <f>C855+1</f>
+        <f t="shared" si="17"/>
         <v>40300</v>
       </c>
       <c r="D856" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E856" s="1" t="b">
         <v>1</v>
@@ -19553,15 +20157,15 @@
     </row>
     <row r="857" spans="1:6">
       <c r="A857">
-        <f>A856+1</f>
+        <f t="shared" si="15"/>
         <v>125</v>
       </c>
       <c r="B857" s="2">
-        <f>B856+1</f>
+        <f t="shared" si="16"/>
         <v>40302</v>
       </c>
       <c r="C857" s="2">
-        <f>C856+1</f>
+        <f t="shared" si="17"/>
         <v>40301</v>
       </c>
       <c r="D857" s="1">
@@ -19576,19 +20180,19 @@
     </row>
     <row r="858" spans="1:6">
       <c r="A858">
-        <f>A857+1</f>
+        <f t="shared" si="15"/>
         <v>126</v>
       </c>
       <c r="B858" s="2">
-        <f>B857+1</f>
+        <f t="shared" si="16"/>
         <v>40303</v>
       </c>
       <c r="C858" s="2">
-        <f>C857+1</f>
+        <f t="shared" si="17"/>
         <v>40302</v>
       </c>
       <c r="D858" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E858" s="1" t="b">
         <v>0</v>
@@ -19599,19 +20203,19 @@
     </row>
     <row r="859" spans="1:6">
       <c r="A859">
-        <f>A858+1</f>
+        <f t="shared" si="15"/>
         <v>127</v>
       </c>
       <c r="B859" s="2">
-        <f>B858+1</f>
+        <f t="shared" si="16"/>
         <v>40304</v>
       </c>
       <c r="C859" s="2">
-        <f>C858+1</f>
+        <f t="shared" si="17"/>
         <v>40303</v>
       </c>
       <c r="D859" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E859" s="1" t="b">
         <v>0</v>
@@ -19622,19 +20226,19 @@
     </row>
     <row r="860" spans="1:6">
       <c r="A860">
-        <f>A859+1</f>
+        <f t="shared" si="15"/>
         <v>128</v>
       </c>
       <c r="B860" s="2">
-        <f>B859+1</f>
+        <f t="shared" si="16"/>
         <v>40305</v>
       </c>
       <c r="C860" s="2">
-        <f>C859+1</f>
+        <f t="shared" si="17"/>
         <v>40304</v>
       </c>
       <c r="D860" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E860" s="1" t="b">
         <v>0</v>
@@ -19645,19 +20249,19 @@
     </row>
     <row r="861" spans="1:6">
       <c r="A861">
-        <f>A860+1</f>
+        <f t="shared" si="15"/>
         <v>129</v>
       </c>
       <c r="B861" s="2">
-        <f>B860+1</f>
+        <f t="shared" si="16"/>
         <v>40306</v>
       </c>
       <c r="C861" s="2">
-        <f>C860+1</f>
+        <f t="shared" si="17"/>
         <v>40305</v>
       </c>
       <c r="D861" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E861" s="1" t="b">
         <v>0</v>
@@ -19668,19 +20272,19 @@
     </row>
     <row r="862" spans="1:6">
       <c r="A862">
-        <f>A861+1</f>
+        <f t="shared" si="15"/>
         <v>130</v>
       </c>
       <c r="B862" s="2">
-        <f>B861+1</f>
+        <f t="shared" si="16"/>
         <v>40307</v>
       </c>
       <c r="C862" s="2">
-        <f>C861+1</f>
+        <f t="shared" si="17"/>
         <v>40306</v>
       </c>
       <c r="D862" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E862" s="1" t="b">
         <v>0</v>
@@ -19691,19 +20295,19 @@
     </row>
     <row r="863" spans="1:6">
       <c r="A863">
-        <f>A862+1</f>
+        <f t="shared" si="15"/>
         <v>131</v>
       </c>
       <c r="B863" s="2">
-        <f>B862+1</f>
+        <f t="shared" si="16"/>
         <v>40308</v>
       </c>
       <c r="C863" s="2">
-        <f>C862+1</f>
+        <f t="shared" si="17"/>
         <v>40307</v>
       </c>
       <c r="D863" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E863" s="1" t="b">
         <v>1</v>
@@ -19714,15 +20318,15 @@
     </row>
     <row r="864" spans="1:6">
       <c r="A864">
-        <f>A863+1</f>
+        <f t="shared" si="15"/>
         <v>132</v>
       </c>
       <c r="B864" s="2">
-        <f>B863+1</f>
+        <f t="shared" si="16"/>
         <v>40309</v>
       </c>
       <c r="C864" s="2">
-        <f>C863+1</f>
+        <f t="shared" si="17"/>
         <v>40308</v>
       </c>
       <c r="D864" s="1">
@@ -19737,19 +20341,19 @@
     </row>
     <row r="865" spans="1:6">
       <c r="A865">
-        <f>A864+1</f>
+        <f t="shared" si="15"/>
         <v>133</v>
       </c>
       <c r="B865" s="2">
-        <f>B864+1</f>
+        <f t="shared" si="16"/>
         <v>40310</v>
       </c>
       <c r="C865" s="2">
-        <f>C864+1</f>
+        <f t="shared" si="17"/>
         <v>40309</v>
       </c>
       <c r="D865" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E865" s="1" t="b">
         <v>0</v>
@@ -19760,19 +20364,19 @@
     </row>
     <row r="866" spans="1:6">
       <c r="A866">
-        <f>A865+1</f>
+        <f t="shared" si="15"/>
         <v>134</v>
       </c>
       <c r="B866" s="2">
-        <f>B865+1</f>
+        <f t="shared" si="16"/>
         <v>40311</v>
       </c>
       <c r="C866" s="2">
-        <f>C865+1</f>
+        <f t="shared" si="17"/>
         <v>40310</v>
       </c>
       <c r="D866" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E866" s="1" t="b">
         <v>0</v>
@@ -19783,19 +20387,19 @@
     </row>
     <row r="867" spans="1:6">
       <c r="A867">
-        <f>A866+1</f>
+        <f t="shared" si="15"/>
         <v>135</v>
       </c>
       <c r="B867" s="2">
-        <f>B866+1</f>
+        <f t="shared" si="16"/>
         <v>40312</v>
       </c>
       <c r="C867" s="2">
-        <f>C866+1</f>
+        <f t="shared" si="17"/>
         <v>40311</v>
       </c>
       <c r="D867" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E867" s="1" t="b">
         <v>0</v>
@@ -19806,19 +20410,19 @@
     </row>
     <row r="868" spans="1:6">
       <c r="A868">
-        <f>A867+1</f>
+        <f t="shared" si="15"/>
         <v>136</v>
       </c>
       <c r="B868" s="2">
-        <f>B867+1</f>
+        <f t="shared" si="16"/>
         <v>40313</v>
       </c>
       <c r="C868" s="2">
-        <f>C867+1</f>
+        <f t="shared" si="17"/>
         <v>40312</v>
       </c>
       <c r="D868" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E868" s="1" t="b">
         <v>0</v>
@@ -19829,19 +20433,19 @@
     </row>
     <row r="869" spans="1:6">
       <c r="A869">
-        <f>A868+1</f>
+        <f t="shared" si="15"/>
         <v>137</v>
       </c>
       <c r="B869" s="2">
-        <f>B868+1</f>
+        <f t="shared" si="16"/>
         <v>40314</v>
       </c>
       <c r="C869" s="2">
-        <f>C868+1</f>
+        <f t="shared" si="17"/>
         <v>40313</v>
       </c>
       <c r="D869" s="1">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E869" s="1" t="b">
         <v>0</v>
@@ -19852,19 +20456,19 @@
     </row>
     <row r="870" spans="1:6">
       <c r="A870">
-        <f>A869+1</f>
+        <f t="shared" si="15"/>
         <v>138</v>
       </c>
       <c r="B870" s="2">
-        <f>B869+1</f>
+        <f t="shared" si="16"/>
         <v>40315</v>
       </c>
       <c r="C870" s="2">
-        <f>C869+1</f>
+        <f t="shared" si="17"/>
         <v>40314</v>
       </c>
       <c r="D870" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E870" s="1" t="b">
         <v>1</v>
@@ -19875,19 +20479,19 @@
     </row>
     <row r="871" spans="1:6">
       <c r="A871">
-        <f>A870+1</f>
+        <f t="shared" si="15"/>
         <v>139</v>
       </c>
       <c r="B871" s="2">
-        <f>B870+1</f>
+        <f t="shared" si="16"/>
         <v>40316</v>
       </c>
       <c r="C871" s="2">
-        <f>C870+1</f>
+        <f t="shared" si="17"/>
         <v>40315</v>
       </c>
       <c r="D871" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E871" s="1" t="b">
         <v>1</v>
@@ -19898,19 +20502,19 @@
     </row>
     <row r="872" spans="1:6">
       <c r="A872">
-        <f>A871+1</f>
+        <f t="shared" si="15"/>
         <v>140</v>
       </c>
       <c r="B872" s="2">
-        <f>B871+1</f>
+        <f t="shared" si="16"/>
         <v>40317</v>
       </c>
       <c r="C872" s="2">
-        <f>C871+1</f>
+        <f t="shared" si="17"/>
         <v>40316</v>
       </c>
       <c r="D872" s="1">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E872" s="1" t="b">
         <v>0</v>
@@ -19921,19 +20525,19 @@
     </row>
     <row r="873" spans="1:6">
       <c r="A873">
-        <f>A872+1</f>
+        <f t="shared" si="15"/>
         <v>141</v>
       </c>
       <c r="B873" s="2">
-        <f>B872+1</f>
+        <f t="shared" si="16"/>
         <v>40318</v>
       </c>
       <c r="C873" s="2">
-        <f>C872+1</f>
+        <f t="shared" si="17"/>
         <v>40317</v>
       </c>
       <c r="D873" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E873" s="1" t="b">
         <v>0</v>
@@ -19944,19 +20548,19 @@
     </row>
     <row r="874" spans="1:6">
       <c r="A874">
-        <f>A873+1</f>
+        <f t="shared" si="15"/>
         <v>142</v>
       </c>
       <c r="B874" s="2">
-        <f>B873+1</f>
+        <f t="shared" si="16"/>
         <v>40319</v>
       </c>
       <c r="C874" s="2">
-        <f>C873+1</f>
+        <f t="shared" si="17"/>
         <v>40318</v>
       </c>
       <c r="D874" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E874" s="1" t="b">
         <v>0</v>
@@ -19967,19 +20571,19 @@
     </row>
     <row r="875" spans="1:6">
       <c r="A875">
-        <f>A874+1</f>
+        <f t="shared" si="15"/>
         <v>143</v>
       </c>
       <c r="B875" s="2">
-        <f>B874+1</f>
+        <f t="shared" si="16"/>
         <v>40320</v>
       </c>
       <c r="C875" s="2">
-        <f>C874+1</f>
+        <f t="shared" si="17"/>
         <v>40319</v>
       </c>
       <c r="D875" s="1">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E875" s="1" t="b">
         <v>0</v>
@@ -19990,19 +20594,19 @@
     </row>
     <row r="876" spans="1:6">
       <c r="A876">
-        <f>A875+1</f>
+        <f t="shared" si="15"/>
         <v>144</v>
       </c>
       <c r="B876" s="2">
-        <f>B875+1</f>
+        <f t="shared" si="16"/>
         <v>40321</v>
       </c>
       <c r="C876" s="2">
-        <f>C875+1</f>
+        <f t="shared" si="17"/>
         <v>40320</v>
       </c>
       <c r="D876" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E876" s="1" t="b">
         <v>0</v>
@@ -20013,19 +20617,19 @@
     </row>
     <row r="877" spans="1:6">
       <c r="A877">
-        <f>A876+1</f>
+        <f t="shared" si="15"/>
         <v>145</v>
       </c>
       <c r="B877" s="2">
-        <f>B876+1</f>
+        <f t="shared" si="16"/>
         <v>40322</v>
       </c>
       <c r="C877" s="2">
-        <f>C876+1</f>
+        <f t="shared" si="17"/>
         <v>40321</v>
       </c>
       <c r="D877" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E877" s="1" t="b">
         <v>1</v>
@@ -20036,19 +20640,19 @@
     </row>
     <row r="878" spans="1:6">
       <c r="A878">
-        <f>A877+1</f>
+        <f t="shared" si="15"/>
         <v>146</v>
       </c>
       <c r="B878" s="2">
-        <f>B877+1</f>
+        <f t="shared" si="16"/>
         <v>40323</v>
       </c>
       <c r="C878" s="2">
-        <f>C877+1</f>
+        <f t="shared" si="17"/>
         <v>40322</v>
       </c>
       <c r="D878" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E878" s="1" t="b">
         <v>1</v>
@@ -20059,19 +20663,19 @@
     </row>
     <row r="879" spans="1:6">
       <c r="A879">
-        <f>A878+1</f>
+        <f t="shared" si="15"/>
         <v>147</v>
       </c>
       <c r="B879" s="2">
-        <f>B878+1</f>
+        <f t="shared" si="16"/>
         <v>40324</v>
       </c>
       <c r="C879" s="2">
-        <f>C878+1</f>
+        <f t="shared" si="17"/>
         <v>40323</v>
       </c>
       <c r="D879" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E879" s="1" t="b">
         <v>0</v>
@@ -20082,19 +20686,19 @@
     </row>
     <row r="880" spans="1:6">
       <c r="A880">
-        <f t="shared" ref="A880:A885" si="15">A879+1</f>
+        <f t="shared" ref="A880:A885" si="18">A879+1</f>
         <v>148</v>
       </c>
       <c r="B880" s="2">
-        <f t="shared" ref="B880:B885" si="16">B879+1</f>
+        <f t="shared" ref="B880:B885" si="19">B879+1</f>
         <v>40325</v>
       </c>
       <c r="C880" s="2">
-        <f t="shared" ref="C880:C885" si="17">C879+1</f>
+        <f t="shared" ref="C880:C885" si="20">C879+1</f>
         <v>40324</v>
       </c>
       <c r="D880" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E880" s="1" t="b">
         <v>0</v>
@@ -20105,19 +20709,19 @@
     </row>
     <row r="881" spans="1:6">
       <c r="A881">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>149</v>
       </c>
       <c r="B881" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>40326</v>
       </c>
       <c r="C881" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>40325</v>
       </c>
       <c r="D881" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E881" s="1" t="b">
         <v>0</v>
@@ -20128,19 +20732,19 @@
     </row>
     <row r="882" spans="1:6">
       <c r="A882">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>150</v>
       </c>
       <c r="B882" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>40327</v>
       </c>
       <c r="C882" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>40326</v>
       </c>
       <c r="D882" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E882" s="1" t="b">
         <v>0</v>
@@ -20151,19 +20755,19 @@
     </row>
     <row r="883" spans="1:6">
       <c r="A883">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>151</v>
       </c>
       <c r="B883" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>40328</v>
       </c>
       <c r="C883" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>40327</v>
       </c>
       <c r="D883" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E883" s="1" t="b">
         <v>0</v>
@@ -20174,19 +20778,19 @@
     </row>
     <row r="884" spans="1:6">
       <c r="A884">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>152</v>
       </c>
       <c r="B884" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>40329</v>
       </c>
       <c r="C884" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>40328</v>
       </c>
       <c r="D884" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E884" s="1" t="b">
         <v>1</v>
@@ -20197,19 +20801,19 @@
     </row>
     <row r="885" spans="1:6">
       <c r="A885">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>153</v>
       </c>
       <c r="B885" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>40330</v>
       </c>
       <c r="C885" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>40329</v>
       </c>
       <c r="D885" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E885" s="1" t="b">
         <v>1</v>
@@ -20220,19 +20824,19 @@
     </row>
     <row r="886" spans="1:6">
       <c r="A886">
-        <f t="shared" ref="A886:A949" si="18">A885+1</f>
+        <f t="shared" ref="A886:A949" si="21">A885+1</f>
         <v>154</v>
       </c>
       <c r="B886" s="2">
-        <f t="shared" ref="B886:B949" si="19">B885+1</f>
+        <f t="shared" ref="B886:B949" si="22">B885+1</f>
         <v>40331</v>
       </c>
       <c r="C886" s="2">
-        <f t="shared" ref="C886:C949" si="20">C885+1</f>
+        <f t="shared" ref="C886:C949" si="23">C885+1</f>
         <v>40330</v>
       </c>
       <c r="D886" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E886" s="1" t="b">
         <v>0</v>
@@ -20243,19 +20847,19 @@
     </row>
     <row r="887" spans="1:6">
       <c r="A887">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>155</v>
       </c>
       <c r="B887" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40332</v>
       </c>
       <c r="C887" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40331</v>
       </c>
       <c r="D887" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E887" s="1" t="b">
         <v>0</v>
@@ -20266,19 +20870,19 @@
     </row>
     <row r="888" spans="1:6">
       <c r="A888">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>156</v>
       </c>
       <c r="B888" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40333</v>
       </c>
       <c r="C888" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40332</v>
       </c>
       <c r="D888" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E888" s="1" t="b">
         <v>0</v>
@@ -20289,19 +20893,19 @@
     </row>
     <row r="889" spans="1:6">
       <c r="A889">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>157</v>
       </c>
       <c r="B889" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40334</v>
       </c>
       <c r="C889" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40333</v>
       </c>
       <c r="D889" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E889" s="1" t="b">
         <v>0</v>
@@ -20312,19 +20916,19 @@
     </row>
     <row r="890" spans="1:6">
       <c r="A890">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>158</v>
       </c>
       <c r="B890" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40335</v>
       </c>
       <c r="C890" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40334</v>
       </c>
       <c r="D890" s="1">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E890" s="1" t="b">
         <v>0</v>
@@ -20335,19 +20939,19 @@
     </row>
     <row r="891" spans="1:6">
       <c r="A891">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>159</v>
       </c>
       <c r="B891" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40336</v>
       </c>
       <c r="C891" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40335</v>
       </c>
       <c r="D891" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E891" s="1" t="b">
         <v>1</v>
@@ -20358,15 +20962,15 @@
     </row>
     <row r="892" spans="1:6">
       <c r="A892">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="B892" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40337</v>
       </c>
       <c r="C892" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40336</v>
       </c>
       <c r="D892" s="1">
@@ -20381,42 +20985,42 @@
     </row>
     <row r="893" spans="1:6">
       <c r="A893">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>161</v>
       </c>
       <c r="B893" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40338</v>
       </c>
       <c r="C893" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40337</v>
       </c>
       <c r="D893" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E893" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F893" t="s">
+        <v>1</v>
+      </c>
+      <c r="F893" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="894" spans="1:6">
       <c r="A894">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>162</v>
       </c>
       <c r="B894" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40339</v>
       </c>
       <c r="C894" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40338</v>
       </c>
       <c r="D894" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E894" s="1" t="b">
         <v>0</v>
@@ -20427,19 +21031,19 @@
     </row>
     <row r="895" spans="1:6">
       <c r="A895">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>163</v>
       </c>
       <c r="B895" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40340</v>
       </c>
       <c r="C895" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40339</v>
       </c>
       <c r="D895" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E895" s="1" t="b">
         <v>0</v>
@@ -20450,19 +21054,19 @@
     </row>
     <row r="896" spans="1:6">
       <c r="A896">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>164</v>
       </c>
       <c r="B896" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40341</v>
       </c>
       <c r="C896" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40340</v>
       </c>
       <c r="D896" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E896" s="1" t="b">
         <v>0</v>
@@ -20473,19 +21077,19 @@
     </row>
     <row r="897" spans="1:6">
       <c r="A897">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>165</v>
       </c>
       <c r="B897" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40342</v>
       </c>
       <c r="C897" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40341</v>
       </c>
       <c r="D897" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E897" s="1" t="b">
         <v>0</v>
@@ -20496,19 +21100,19 @@
     </row>
     <row r="898" spans="1:6">
       <c r="A898">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>166</v>
       </c>
       <c r="B898" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40343</v>
       </c>
       <c r="C898" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40342</v>
       </c>
       <c r="D898" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E898" s="1" t="b">
         <v>1</v>
@@ -20519,15 +21123,15 @@
     </row>
     <row r="899" spans="1:6">
       <c r="A899">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>167</v>
       </c>
       <c r="B899" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40344</v>
       </c>
       <c r="C899" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40343</v>
       </c>
       <c r="D899" s="1">
@@ -20542,19 +21146,19 @@
     </row>
     <row r="900" spans="1:6">
       <c r="A900">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>168</v>
       </c>
       <c r="B900" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40345</v>
       </c>
       <c r="C900" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40344</v>
       </c>
       <c r="D900" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E900" s="1" t="b">
         <v>0</v>
@@ -20565,19 +21169,19 @@
     </row>
     <row r="901" spans="1:6">
       <c r="A901">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>169</v>
       </c>
       <c r="B901" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40346</v>
       </c>
       <c r="C901" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40345</v>
       </c>
       <c r="D901" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E901" s="1" t="b">
         <v>0</v>
@@ -20588,19 +21192,19 @@
     </row>
     <row r="902" spans="1:6">
       <c r="A902">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>170</v>
       </c>
       <c r="B902" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40347</v>
       </c>
       <c r="C902" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40346</v>
       </c>
       <c r="D902" s="1">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E902" s="1" t="b">
         <v>0</v>
@@ -20611,15 +21215,15 @@
     </row>
     <row r="903" spans="1:6">
       <c r="A903">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>171</v>
       </c>
       <c r="B903" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40348</v>
       </c>
       <c r="C903" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40347</v>
       </c>
       <c r="D903" s="1">
@@ -20634,19 +21238,19 @@
     </row>
     <row r="904" spans="1:6">
       <c r="A904">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>172</v>
       </c>
       <c r="B904" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40349</v>
       </c>
       <c r="C904" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40348</v>
       </c>
       <c r="D904" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E904" s="1" t="b">
         <v>0</v>
@@ -20657,19 +21261,19 @@
     </row>
     <row r="905" spans="1:6">
       <c r="A905">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>173</v>
       </c>
       <c r="B905" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40350</v>
       </c>
       <c r="C905" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40349</v>
       </c>
       <c r="D905" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E905" s="1" t="b">
         <v>1</v>
@@ -20680,19 +21284,19 @@
     </row>
     <row r="906" spans="1:6">
       <c r="A906">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>174</v>
       </c>
       <c r="B906" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40351</v>
       </c>
       <c r="C906" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40350</v>
       </c>
       <c r="D906" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E906" s="1" t="b">
         <v>1</v>
@@ -20703,19 +21307,19 @@
     </row>
     <row r="907" spans="1:6">
       <c r="A907">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>175</v>
       </c>
       <c r="B907" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40352</v>
       </c>
       <c r="C907" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40351</v>
       </c>
       <c r="D907" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E907" s="1" t="b">
         <v>0</v>
@@ -20726,19 +21330,19 @@
     </row>
     <row r="908" spans="1:6">
       <c r="A908">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>176</v>
       </c>
       <c r="B908" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40353</v>
       </c>
       <c r="C908" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40352</v>
       </c>
       <c r="D908" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E908" s="1" t="b">
         <v>0</v>
@@ -20749,19 +21353,19 @@
     </row>
     <row r="909" spans="1:6">
       <c r="A909">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>177</v>
       </c>
       <c r="B909" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40354</v>
       </c>
       <c r="C909" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40353</v>
       </c>
       <c r="D909" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E909" s="1" t="b">
         <v>0</v>
@@ -20772,19 +21376,19 @@
     </row>
     <row r="910" spans="1:6">
       <c r="A910">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>178</v>
       </c>
       <c r="B910" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40355</v>
       </c>
       <c r="C910" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40354</v>
       </c>
       <c r="D910" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E910" s="1" t="b">
         <v>0</v>
@@ -20795,19 +21399,19 @@
     </row>
     <row r="911" spans="1:6">
       <c r="A911">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>179</v>
       </c>
       <c r="B911" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40356</v>
       </c>
       <c r="C911" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40355</v>
       </c>
       <c r="D911" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E911" s="1" t="b">
         <v>0</v>
@@ -20818,19 +21422,19 @@
     </row>
     <row r="912" spans="1:6">
       <c r="A912">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>180</v>
       </c>
       <c r="B912" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40357</v>
       </c>
       <c r="C912" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40356</v>
       </c>
       <c r="D912" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E912" s="1" t="b">
         <v>1</v>
@@ -20841,19 +21445,19 @@
     </row>
     <row r="913" spans="1:6">
       <c r="A913">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>181</v>
       </c>
       <c r="B913" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40358</v>
       </c>
       <c r="C913" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40357</v>
       </c>
       <c r="D913" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E913" s="1" t="b">
         <v>1</v>
@@ -20864,19 +21468,19 @@
     </row>
     <row r="914" spans="1:6">
       <c r="A914">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>182</v>
       </c>
       <c r="B914" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40359</v>
       </c>
       <c r="C914" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40358</v>
       </c>
       <c r="D914" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E914" s="1" t="b">
         <v>0</v>
@@ -20887,19 +21491,19 @@
     </row>
     <row r="915" spans="1:6">
       <c r="A915">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>183</v>
       </c>
       <c r="B915" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40360</v>
       </c>
       <c r="C915" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40359</v>
       </c>
       <c r="D915" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E915" s="1" t="b">
         <v>0</v>
@@ -20910,19 +21514,19 @@
     </row>
     <row r="916" spans="1:6">
       <c r="A916">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>184</v>
       </c>
       <c r="B916" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40361</v>
       </c>
       <c r="C916" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40360</v>
       </c>
       <c r="D916" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E916" s="1" t="b">
         <v>0</v>
@@ -20933,19 +21537,19 @@
     </row>
     <row r="917" spans="1:6">
       <c r="A917">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>185</v>
       </c>
       <c r="B917" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40362</v>
       </c>
       <c r="C917" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40361</v>
       </c>
       <c r="D917" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E917" s="1" t="b">
         <v>0</v>
@@ -20956,19 +21560,19 @@
     </row>
     <row r="918" spans="1:6">
       <c r="A918">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>186</v>
       </c>
       <c r="B918" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40363</v>
       </c>
       <c r="C918" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40362</v>
       </c>
       <c r="D918" s="1">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E918" s="1" t="b">
         <v>0</v>
@@ -20979,19 +21583,19 @@
     </row>
     <row r="919" spans="1:6">
       <c r="A919">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>187</v>
       </c>
       <c r="B919" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40364</v>
       </c>
       <c r="C919" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40363</v>
       </c>
       <c r="D919" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E919" s="1" t="b">
         <v>1</v>
@@ -21002,19 +21606,19 @@
     </row>
     <row r="920" spans="1:6">
       <c r="A920">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>188</v>
       </c>
       <c r="B920" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40365</v>
       </c>
       <c r="C920" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40364</v>
       </c>
       <c r="D920" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E920" s="1" t="b">
         <v>1</v>
@@ -21025,19 +21629,19 @@
     </row>
     <row r="921" spans="1:6">
       <c r="A921">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>189</v>
       </c>
       <c r="B921" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40366</v>
       </c>
       <c r="C921" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40365</v>
       </c>
       <c r="D921" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E921" s="1" t="b">
         <v>0</v>
@@ -21048,19 +21652,19 @@
     </row>
     <row r="922" spans="1:6">
       <c r="A922">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>190</v>
       </c>
       <c r="B922" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40367</v>
       </c>
       <c r="C922" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40366</v>
       </c>
       <c r="D922" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E922" s="1" t="b">
         <v>0</v>
@@ -21071,19 +21675,19 @@
     </row>
     <row r="923" spans="1:6">
       <c r="A923">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>191</v>
       </c>
       <c r="B923" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40368</v>
       </c>
       <c r="C923" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40367</v>
       </c>
       <c r="D923" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E923" s="1" t="b">
         <v>0</v>
@@ -21094,19 +21698,19 @@
     </row>
     <row r="924" spans="1:6">
       <c r="A924">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>192</v>
       </c>
       <c r="B924" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40369</v>
       </c>
       <c r="C924" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40368</v>
       </c>
       <c r="D924" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E924" s="1" t="b">
         <v>0</v>
@@ -21117,19 +21721,19 @@
     </row>
     <row r="925" spans="1:6">
       <c r="A925">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>193</v>
       </c>
       <c r="B925" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40370</v>
       </c>
       <c r="C925" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40369</v>
       </c>
       <c r="D925" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E925" s="1" t="b">
         <v>0</v>
@@ -21140,19 +21744,19 @@
     </row>
     <row r="926" spans="1:6">
       <c r="A926">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>194</v>
       </c>
       <c r="B926" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40371</v>
       </c>
       <c r="C926" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40370</v>
       </c>
       <c r="D926" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E926" s="1" t="b">
         <v>1</v>
@@ -21163,19 +21767,19 @@
     </row>
     <row r="927" spans="1:6">
       <c r="A927">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>195</v>
       </c>
       <c r="B927" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40372</v>
       </c>
       <c r="C927" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40371</v>
       </c>
       <c r="D927" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E927" s="1" t="b">
         <v>1</v>
@@ -21186,19 +21790,19 @@
     </row>
     <row r="928" spans="1:6">
       <c r="A928">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>196</v>
       </c>
       <c r="B928" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40373</v>
       </c>
       <c r="C928" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40372</v>
       </c>
       <c r="D928" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E928" s="1" t="b">
         <v>0</v>
@@ -21209,19 +21813,19 @@
     </row>
     <row r="929" spans="1:6">
       <c r="A929">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>197</v>
       </c>
       <c r="B929" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40374</v>
       </c>
       <c r="C929" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40373</v>
       </c>
       <c r="D929" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E929" s="1" t="b">
         <v>0</v>
@@ -21232,19 +21836,19 @@
     </row>
     <row r="930" spans="1:6">
       <c r="A930">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>198</v>
       </c>
       <c r="B930" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40375</v>
       </c>
       <c r="C930" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40374</v>
       </c>
       <c r="D930" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E930" s="1" t="b">
         <v>0</v>
@@ -21255,19 +21859,19 @@
     </row>
     <row r="931" spans="1:6">
       <c r="A931">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>199</v>
       </c>
       <c r="B931" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40376</v>
       </c>
       <c r="C931" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40375</v>
       </c>
       <c r="D931" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E931" s="1" t="b">
         <v>0</v>
@@ -21278,19 +21882,19 @@
     </row>
     <row r="932" spans="1:6">
       <c r="A932">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="B932" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40377</v>
       </c>
       <c r="C932" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40376</v>
       </c>
       <c r="D932" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E932" s="1" t="b">
         <v>0</v>
@@ -21301,19 +21905,19 @@
     </row>
     <row r="933" spans="1:6">
       <c r="A933">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>201</v>
       </c>
       <c r="B933" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40378</v>
       </c>
       <c r="C933" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40377</v>
       </c>
       <c r="D933" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E933" s="1" t="b">
         <v>1</v>
@@ -21324,19 +21928,19 @@
     </row>
     <row r="934" spans="1:6">
       <c r="A934">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>202</v>
       </c>
       <c r="B934" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40379</v>
       </c>
       <c r="C934" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40378</v>
       </c>
       <c r="D934" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E934" s="1" t="b">
         <v>1</v>
@@ -21347,19 +21951,19 @@
     </row>
     <row r="935" spans="1:6">
       <c r="A935">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>203</v>
       </c>
       <c r="B935" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40380</v>
       </c>
       <c r="C935" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40379</v>
       </c>
       <c r="D935" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E935" s="1" t="b">
         <v>0</v>
@@ -21370,19 +21974,19 @@
     </row>
     <row r="936" spans="1:6">
       <c r="A936">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>204</v>
       </c>
       <c r="B936" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40381</v>
       </c>
       <c r="C936" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40380</v>
       </c>
       <c r="D936" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E936" s="1" t="b">
         <v>0</v>
@@ -21393,19 +21997,19 @@
     </row>
     <row r="937" spans="1:6">
       <c r="A937">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>205</v>
       </c>
       <c r="B937" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40382</v>
       </c>
       <c r="C937" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40381</v>
       </c>
       <c r="D937" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E937" s="1" t="b">
         <v>0</v>
@@ -21416,19 +22020,19 @@
     </row>
     <row r="938" spans="1:6">
       <c r="A938">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>206</v>
       </c>
       <c r="B938" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40383</v>
       </c>
       <c r="C938" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40382</v>
       </c>
       <c r="D938" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E938" s="1" t="b">
         <v>0</v>
@@ -21439,19 +22043,19 @@
     </row>
     <row r="939" spans="1:6">
       <c r="A939">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>207</v>
       </c>
       <c r="B939" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40384</v>
       </c>
       <c r="C939" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40383</v>
       </c>
       <c r="D939" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E939" s="1" t="b">
         <v>0</v>
@@ -21462,19 +22066,19 @@
     </row>
     <row r="940" spans="1:6">
       <c r="A940">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>208</v>
       </c>
       <c r="B940" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40385</v>
       </c>
       <c r="C940" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40384</v>
       </c>
       <c r="D940" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E940" s="1" t="b">
         <v>1</v>
@@ -21485,15 +22089,15 @@
     </row>
     <row r="941" spans="1:6">
       <c r="A941">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>209</v>
       </c>
       <c r="B941" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40386</v>
       </c>
       <c r="C941" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40385</v>
       </c>
       <c r="D941" s="1">
@@ -21508,19 +22112,19 @@
     </row>
     <row r="942" spans="1:6">
       <c r="A942">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>210</v>
       </c>
       <c r="B942" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40387</v>
       </c>
       <c r="C942" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40386</v>
       </c>
       <c r="D942" s="1">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E942" s="1" t="b">
         <v>0</v>
@@ -21531,19 +22135,19 @@
     </row>
     <row r="943" spans="1:6">
       <c r="A943">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>211</v>
       </c>
       <c r="B943" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40388</v>
       </c>
       <c r="C943" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40387</v>
       </c>
       <c r="D943" s="1">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E943" s="1" t="b">
         <v>0</v>
@@ -21554,19 +22158,19 @@
     </row>
     <row r="944" spans="1:6">
       <c r="A944">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>212</v>
       </c>
       <c r="B944" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40389</v>
       </c>
       <c r="C944" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40388</v>
       </c>
       <c r="D944" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E944" s="1" t="b">
         <v>0</v>
@@ -21577,19 +22181,19 @@
     </row>
     <row r="945" spans="1:6">
       <c r="A945">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>213</v>
       </c>
       <c r="B945" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40390</v>
       </c>
       <c r="C945" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40389</v>
       </c>
       <c r="D945" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E945" s="1" t="b">
         <v>0</v>
@@ -21600,19 +22204,19 @@
     </row>
     <row r="946" spans="1:6">
       <c r="A946">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>214</v>
       </c>
       <c r="B946" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40391</v>
       </c>
       <c r="C946" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40390</v>
       </c>
       <c r="D946" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E946" s="1" t="b">
         <v>0</v>
@@ -21623,15 +22227,15 @@
     </row>
     <row r="947" spans="1:6">
       <c r="A947">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>215</v>
       </c>
       <c r="B947" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40392</v>
       </c>
       <c r="C947" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40391</v>
       </c>
       <c r="D947" s="1">
@@ -21646,15 +22250,15 @@
     </row>
     <row r="948" spans="1:6">
       <c r="A948">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="B948" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40393</v>
       </c>
       <c r="C948" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40392</v>
       </c>
       <c r="D948" s="1">
@@ -21669,19 +22273,19 @@
     </row>
     <row r="949" spans="1:6">
       <c r="A949">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>217</v>
       </c>
       <c r="B949" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>40394</v>
       </c>
       <c r="C949" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40393</v>
       </c>
       <c r="D949" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E949" s="1" t="b">
         <v>0</v>
@@ -21692,19 +22296,19 @@
     </row>
     <row r="950" spans="1:6">
       <c r="A950">
-        <f t="shared" ref="A950:A1013" si="21">A949+1</f>
+        <f t="shared" ref="A950:A1013" si="24">A949+1</f>
         <v>218</v>
       </c>
       <c r="B950" s="2">
-        <f t="shared" ref="B950:B1013" si="22">B949+1</f>
+        <f t="shared" ref="B950:B1013" si="25">B949+1</f>
         <v>40395</v>
       </c>
       <c r="C950" s="2">
-        <f t="shared" ref="C950:C1013" si="23">C949+1</f>
+        <f t="shared" ref="C950:C1013" si="26">C949+1</f>
         <v>40394</v>
       </c>
       <c r="D950" s="1">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E950" s="1" t="b">
         <v>0</v>
@@ -21715,19 +22319,19 @@
     </row>
     <row r="951" spans="1:6">
       <c r="A951">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>219</v>
       </c>
       <c r="B951" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40396</v>
       </c>
       <c r="C951" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40395</v>
       </c>
       <c r="D951" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E951" s="1" t="b">
         <v>0</v>
@@ -21738,19 +22342,19 @@
     </row>
     <row r="952" spans="1:6">
       <c r="A952">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>220</v>
       </c>
       <c r="B952" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40397</v>
       </c>
       <c r="C952" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40396</v>
       </c>
       <c r="D952" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E952" s="1" t="b">
         <v>0</v>
@@ -21761,15 +22365,15 @@
     </row>
     <row r="953" spans="1:6">
       <c r="A953">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>221</v>
       </c>
       <c r="B953" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40398</v>
       </c>
       <c r="C953" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40397</v>
       </c>
       <c r="D953" s="1">
@@ -21784,19 +22388,19 @@
     </row>
     <row r="954" spans="1:6">
       <c r="A954">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>222</v>
       </c>
       <c r="B954" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40399</v>
       </c>
       <c r="C954" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40398</v>
       </c>
       <c r="D954" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E954" s="1" t="b">
         <v>1</v>
@@ -21807,19 +22411,19 @@
     </row>
     <row r="955" spans="1:6">
       <c r="A955">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>223</v>
       </c>
       <c r="B955" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40400</v>
       </c>
       <c r="C955" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40399</v>
       </c>
       <c r="D955" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E955" s="1" t="b">
         <v>1</v>
@@ -21830,19 +22434,19 @@
     </row>
     <row r="956" spans="1:6">
       <c r="A956">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>224</v>
       </c>
       <c r="B956" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40401</v>
       </c>
       <c r="C956" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40400</v>
       </c>
       <c r="D956" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E956" s="1" t="b">
         <v>0</v>
@@ -21853,19 +22457,19 @@
     </row>
     <row r="957" spans="1:6">
       <c r="A957">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>225</v>
       </c>
       <c r="B957" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40402</v>
       </c>
       <c r="C957" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40401</v>
       </c>
       <c r="D957" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E957" s="1" t="b">
         <v>0</v>
@@ -21876,19 +22480,19 @@
     </row>
     <row r="958" spans="1:6">
       <c r="A958">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>226</v>
       </c>
       <c r="B958" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40403</v>
       </c>
       <c r="C958" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40402</v>
       </c>
       <c r="D958" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E958" s="1" t="b">
         <v>0</v>
@@ -21899,19 +22503,19 @@
     </row>
     <row r="959" spans="1:6">
       <c r="A959">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>227</v>
       </c>
       <c r="B959" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40404</v>
       </c>
       <c r="C959" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40403</v>
       </c>
       <c r="D959" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E959" s="1" t="b">
         <v>0</v>
@@ -21922,19 +22526,19 @@
     </row>
     <row r="960" spans="1:6">
       <c r="A960">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>228</v>
       </c>
       <c r="B960" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40405</v>
       </c>
       <c r="C960" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40404</v>
       </c>
       <c r="D960" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E960" s="1" t="b">
         <v>0</v>
@@ -21945,19 +22549,19 @@
     </row>
     <row r="961" spans="1:6">
       <c r="A961">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>229</v>
       </c>
       <c r="B961" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40406</v>
       </c>
       <c r="C961" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40405</v>
       </c>
       <c r="D961" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E961" s="1" t="b">
         <v>1</v>
@@ -21968,19 +22572,19 @@
     </row>
     <row r="962" spans="1:6">
       <c r="A962">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>230</v>
       </c>
       <c r="B962" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40407</v>
       </c>
       <c r="C962" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40406</v>
       </c>
       <c r="D962" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E962" s="1" t="b">
         <v>1</v>
@@ -21991,19 +22595,19 @@
     </row>
     <row r="963" spans="1:6">
       <c r="A963">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>231</v>
       </c>
       <c r="B963" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40408</v>
       </c>
       <c r="C963" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40407</v>
       </c>
       <c r="D963" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E963" s="1" t="b">
         <v>0</v>
@@ -22014,19 +22618,19 @@
     </row>
     <row r="964" spans="1:6">
       <c r="A964">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>232</v>
       </c>
       <c r="B964" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40409</v>
       </c>
       <c r="C964" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40408</v>
       </c>
       <c r="D964" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E964" s="1" t="b">
         <v>0</v>
@@ -22037,19 +22641,19 @@
     </row>
     <row r="965" spans="1:6">
       <c r="A965">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>233</v>
       </c>
       <c r="B965" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40410</v>
       </c>
       <c r="C965" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40409</v>
       </c>
       <c r="D965" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E965" s="1" t="b">
         <v>0</v>
@@ -22060,19 +22664,19 @@
     </row>
     <row r="966" spans="1:6">
       <c r="A966">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>234</v>
       </c>
       <c r="B966" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40411</v>
       </c>
       <c r="C966" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40410</v>
       </c>
       <c r="D966" s="1">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E966" s="1" t="b">
         <v>0</v>
@@ -22083,19 +22687,19 @@
     </row>
     <row r="967" spans="1:6">
       <c r="A967">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>235</v>
       </c>
       <c r="B967" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40412</v>
       </c>
       <c r="C967" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40411</v>
       </c>
       <c r="D967" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E967" s="1" t="b">
         <v>0</v>
@@ -22106,19 +22710,19 @@
     </row>
     <row r="968" spans="1:6">
       <c r="A968">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>236</v>
       </c>
       <c r="B968" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40413</v>
       </c>
       <c r="C968" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40412</v>
       </c>
       <c r="D968" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E968" s="1" t="b">
         <v>1</v>
@@ -22129,19 +22733,19 @@
     </row>
     <row r="969" spans="1:6">
       <c r="A969">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>237</v>
       </c>
       <c r="B969" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40414</v>
       </c>
       <c r="C969" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40413</v>
       </c>
       <c r="D969" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E969" s="1" t="b">
         <v>1</v>
@@ -22152,19 +22756,19 @@
     </row>
     <row r="970" spans="1:6">
       <c r="A970">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>238</v>
       </c>
       <c r="B970" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40415</v>
       </c>
       <c r="C970" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40414</v>
       </c>
       <c r="D970" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E970" s="1" t="b">
         <v>0</v>
@@ -22175,19 +22779,19 @@
     </row>
     <row r="971" spans="1:6">
       <c r="A971">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>239</v>
       </c>
       <c r="B971" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40416</v>
       </c>
       <c r="C971" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40415</v>
       </c>
       <c r="D971" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E971" s="1" t="b">
         <v>0</v>
@@ -22198,19 +22802,19 @@
     </row>
     <row r="972" spans="1:6">
       <c r="A972">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>240</v>
       </c>
       <c r="B972" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40417</v>
       </c>
       <c r="C972" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40416</v>
       </c>
       <c r="D972" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E972" s="1" t="b">
         <v>0</v>
@@ -22221,19 +22825,19 @@
     </row>
     <row r="973" spans="1:6">
       <c r="A973">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>241</v>
       </c>
       <c r="B973" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40418</v>
       </c>
       <c r="C973" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40417</v>
       </c>
       <c r="D973" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E973" s="1" t="b">
         <v>0</v>
@@ -22244,19 +22848,19 @@
     </row>
     <row r="974" spans="1:6">
       <c r="A974">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>242</v>
       </c>
       <c r="B974" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40419</v>
       </c>
       <c r="C974" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40418</v>
       </c>
       <c r="D974" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E974" s="1" t="b">
         <v>0</v>
@@ -22267,19 +22871,19 @@
     </row>
     <row r="975" spans="1:6">
       <c r="A975">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>243</v>
       </c>
       <c r="B975" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40420</v>
       </c>
       <c r="C975" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40419</v>
       </c>
       <c r="D975" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E975" s="1" t="b">
         <v>1</v>
@@ -22290,19 +22894,19 @@
     </row>
     <row r="976" spans="1:6">
       <c r="A976">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>244</v>
       </c>
       <c r="B976" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40421</v>
       </c>
       <c r="C976" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40420</v>
       </c>
       <c r="D976" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E976" s="1" t="b">
         <v>1</v>
@@ -22313,19 +22917,19 @@
     </row>
     <row r="977" spans="1:6">
       <c r="A977">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>245</v>
       </c>
       <c r="B977" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40422</v>
       </c>
       <c r="C977" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40421</v>
       </c>
       <c r="D977" s="1">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E977" s="1" t="b">
         <v>0</v>
@@ -22336,19 +22940,19 @@
     </row>
     <row r="978" spans="1:6">
       <c r="A978">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>246</v>
       </c>
       <c r="B978" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40423</v>
       </c>
       <c r="C978" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40422</v>
       </c>
       <c r="D978" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E978" s="1" t="b">
         <v>0</v>
@@ -22359,19 +22963,19 @@
     </row>
     <row r="979" spans="1:6">
       <c r="A979">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>247</v>
       </c>
       <c r="B979" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40424</v>
       </c>
       <c r="C979" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40423</v>
       </c>
       <c r="D979" s="1">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E979" s="1" t="b">
         <v>0</v>
@@ -22382,19 +22986,19 @@
     </row>
     <row r="980" spans="1:6">
       <c r="A980">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>248</v>
       </c>
       <c r="B980" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40425</v>
       </c>
       <c r="C980" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40424</v>
       </c>
       <c r="D980" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E980" s="1" t="b">
         <v>0</v>
@@ -22405,19 +23009,19 @@
     </row>
     <row r="981" spans="1:6">
       <c r="A981">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>249</v>
       </c>
       <c r="B981" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40426</v>
       </c>
       <c r="C981" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40425</v>
       </c>
       <c r="D981" s="1">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E981" s="1" t="b">
         <v>0</v>
@@ -22428,19 +23032,19 @@
     </row>
     <row r="982" spans="1:6">
       <c r="A982">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>250</v>
       </c>
       <c r="B982" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40427</v>
       </c>
       <c r="C982" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40426</v>
       </c>
       <c r="D982" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E982" s="1" t="b">
         <v>1</v>
@@ -22451,19 +23055,19 @@
     </row>
     <row r="983" spans="1:6">
       <c r="A983">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>251</v>
       </c>
       <c r="B983" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40428</v>
       </c>
       <c r="C983" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40427</v>
       </c>
       <c r="D983" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E983" s="1" t="b">
         <v>1</v>
@@ -22474,19 +23078,19 @@
     </row>
     <row r="984" spans="1:6">
       <c r="A984">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>252</v>
       </c>
       <c r="B984" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40429</v>
       </c>
       <c r="C984" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40428</v>
       </c>
       <c r="D984" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E984" s="1" t="b">
         <v>0</v>
@@ -22497,19 +23101,19 @@
     </row>
     <row r="985" spans="1:6">
       <c r="A985">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>253</v>
       </c>
       <c r="B985" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40430</v>
       </c>
       <c r="C985" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40429</v>
       </c>
       <c r="D985" s="1">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E985" s="1" t="b">
         <v>0</v>
@@ -22520,19 +23124,19 @@
     </row>
     <row r="986" spans="1:6">
       <c r="A986">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>254</v>
       </c>
       <c r="B986" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40431</v>
       </c>
       <c r="C986" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40430</v>
       </c>
       <c r="D986" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E986" s="1" t="b">
         <v>0</v>
@@ -22543,19 +23147,19 @@
     </row>
     <row r="987" spans="1:6">
       <c r="A987">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>255</v>
       </c>
       <c r="B987" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40432</v>
       </c>
       <c r="C987" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40431</v>
       </c>
       <c r="D987" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E987" s="1" t="b">
         <v>0</v>
@@ -22566,19 +23170,19 @@
     </row>
     <row r="988" spans="1:6">
       <c r="A988">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>256</v>
       </c>
       <c r="B988" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40433</v>
       </c>
       <c r="C988" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40432</v>
       </c>
       <c r="D988" s="1">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E988" s="1" t="b">
         <v>0</v>
@@ -22589,19 +23193,19 @@
     </row>
     <row r="989" spans="1:6">
       <c r="A989">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>257</v>
       </c>
       <c r="B989" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40434</v>
       </c>
       <c r="C989" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40433</v>
       </c>
       <c r="D989" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E989" s="1" t="b">
         <v>1</v>
@@ -22612,15 +23216,15 @@
     </row>
     <row r="990" spans="1:6">
       <c r="A990">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>258</v>
       </c>
       <c r="B990" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40435</v>
       </c>
       <c r="C990" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40434</v>
       </c>
       <c r="D990" s="1">
@@ -22635,19 +23239,19 @@
     </row>
     <row r="991" spans="1:6">
       <c r="A991">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>259</v>
       </c>
       <c r="B991" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40436</v>
       </c>
       <c r="C991" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40435</v>
       </c>
       <c r="D991" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E991" s="1" t="b">
         <v>0</v>
@@ -22658,19 +23262,19 @@
     </row>
     <row r="992" spans="1:6">
       <c r="A992">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>260</v>
       </c>
       <c r="B992" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40437</v>
       </c>
       <c r="C992" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40436</v>
       </c>
       <c r="D992" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E992" s="1" t="b">
         <v>0</v>
@@ -22681,19 +23285,19 @@
     </row>
     <row r="993" spans="1:6">
       <c r="A993">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>261</v>
       </c>
       <c r="B993" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40438</v>
       </c>
       <c r="C993" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40437</v>
       </c>
       <c r="D993" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E993" s="1" t="b">
         <v>0</v>
@@ -22704,19 +23308,19 @@
     </row>
     <row r="994" spans="1:6">
       <c r="A994">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>262</v>
       </c>
       <c r="B994" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40439</v>
       </c>
       <c r="C994" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40438</v>
       </c>
       <c r="D994" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E994" s="1" t="b">
         <v>0</v>
@@ -22727,19 +23331,19 @@
     </row>
     <row r="995" spans="1:6">
       <c r="A995">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>263</v>
       </c>
       <c r="B995" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40440</v>
       </c>
       <c r="C995" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40439</v>
       </c>
       <c r="D995" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E995" s="1" t="b">
         <v>0</v>
@@ -22750,19 +23354,19 @@
     </row>
     <row r="996" spans="1:6">
       <c r="A996">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>264</v>
       </c>
       <c r="B996" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40441</v>
       </c>
       <c r="C996" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40440</v>
       </c>
       <c r="D996" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E996" s="1" t="b">
         <v>1</v>
@@ -22773,15 +23377,15 @@
     </row>
     <row r="997" spans="1:6">
       <c r="A997">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>265</v>
       </c>
       <c r="B997" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40442</v>
       </c>
       <c r="C997" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40441</v>
       </c>
       <c r="D997" s="1">
@@ -22796,19 +23400,19 @@
     </row>
     <row r="998" spans="1:6">
       <c r="A998">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>266</v>
       </c>
       <c r="B998" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40443</v>
       </c>
       <c r="C998" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40442</v>
       </c>
       <c r="D998" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E998" s="1" t="b">
         <v>0</v>
@@ -22819,19 +23423,19 @@
     </row>
     <row r="999" spans="1:6">
       <c r="A999">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>267</v>
       </c>
       <c r="B999" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40444</v>
       </c>
       <c r="C999" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40443</v>
       </c>
       <c r="D999" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E999" s="1" t="b">
         <v>0</v>
@@ -22842,19 +23446,19 @@
     </row>
     <row r="1000" spans="1:6">
       <c r="A1000">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>268</v>
       </c>
       <c r="B1000" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40445</v>
       </c>
       <c r="C1000" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40444</v>
       </c>
       <c r="D1000" s="1">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E1000" s="1" t="b">
         <v>0</v>
@@ -22865,19 +23469,19 @@
     </row>
     <row r="1001" spans="1:6">
       <c r="A1001">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>269</v>
       </c>
       <c r="B1001" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40446</v>
       </c>
       <c r="C1001" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40445</v>
       </c>
       <c r="D1001" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E1001" s="1" t="b">
         <v>0</v>
@@ -22888,19 +23492,19 @@
     </row>
     <row r="1002" spans="1:6">
       <c r="A1002">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>270</v>
       </c>
       <c r="B1002" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40447</v>
       </c>
       <c r="C1002" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40446</v>
       </c>
       <c r="D1002" s="1">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E1002" s="1" t="b">
         <v>0</v>
@@ -22911,19 +23515,19 @@
     </row>
     <row r="1003" spans="1:6">
       <c r="A1003">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>271</v>
       </c>
       <c r="B1003" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40448</v>
       </c>
       <c r="C1003" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40447</v>
       </c>
       <c r="D1003" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E1003" s="1" t="b">
         <v>1</v>
@@ -22934,19 +23538,19 @@
     </row>
     <row r="1004" spans="1:6">
       <c r="A1004">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>272</v>
       </c>
       <c r="B1004" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40449</v>
       </c>
       <c r="C1004" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40448</v>
       </c>
       <c r="D1004" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1004" s="1" t="b">
         <v>1</v>
@@ -22957,42 +23561,42 @@
     </row>
     <row r="1005" spans="1:6">
       <c r="A1005">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>273</v>
       </c>
       <c r="B1005" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40450</v>
       </c>
       <c r="C1005" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40449</v>
       </c>
       <c r="D1005" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E1005" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F1005" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1005" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1006" spans="1:6">
       <c r="A1006">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>274</v>
       </c>
       <c r="B1006" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40451</v>
       </c>
       <c r="C1006" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40450</v>
       </c>
       <c r="D1006" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E1006" s="1" t="b">
         <v>0</v>
@@ -23003,19 +23607,19 @@
     </row>
     <row r="1007" spans="1:6">
       <c r="A1007">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>275</v>
       </c>
       <c r="B1007" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40452</v>
       </c>
       <c r="C1007" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40451</v>
       </c>
       <c r="D1007" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E1007" s="1" t="b">
         <v>0</v>
@@ -23026,19 +23630,19 @@
     </row>
     <row r="1008" spans="1:6">
       <c r="A1008">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>276</v>
       </c>
       <c r="B1008" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40453</v>
       </c>
       <c r="C1008" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40452</v>
       </c>
       <c r="D1008" s="1">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E1008" s="1" t="b">
         <v>0</v>
@@ -23049,19 +23653,19 @@
     </row>
     <row r="1009" spans="1:6">
       <c r="A1009">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>277</v>
       </c>
       <c r="B1009" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40454</v>
       </c>
       <c r="C1009" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40453</v>
       </c>
       <c r="D1009" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E1009" s="1" t="b">
         <v>0</v>
@@ -23072,19 +23676,19 @@
     </row>
     <row r="1010" spans="1:6">
       <c r="A1010">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>278</v>
       </c>
       <c r="B1010" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40455</v>
       </c>
       <c r="C1010" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40454</v>
       </c>
       <c r="D1010" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1010" s="1" t="b">
         <v>1</v>
@@ -23095,19 +23699,19 @@
     </row>
     <row r="1011" spans="1:6">
       <c r="A1011">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>279</v>
       </c>
       <c r="B1011" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40456</v>
       </c>
       <c r="C1011" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40455</v>
       </c>
       <c r="D1011" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1011" s="1" t="b">
         <v>1</v>
@@ -23118,42 +23722,42 @@
     </row>
     <row r="1012" spans="1:6">
       <c r="A1012">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>280</v>
       </c>
       <c r="B1012" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40457</v>
       </c>
       <c r="C1012" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40456</v>
       </c>
       <c r="D1012" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1012" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F1012" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1012" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1013" spans="1:6">
       <c r="A1013">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>281</v>
       </c>
       <c r="B1013" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>40458</v>
       </c>
       <c r="C1013" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40457</v>
       </c>
       <c r="D1013" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E1013" s="1" t="b">
         <v>0</v>
@@ -23164,19 +23768,19 @@
     </row>
     <row r="1014" spans="1:6">
       <c r="A1014">
-        <f t="shared" ref="A1014:A1077" si="24">A1013+1</f>
+        <f t="shared" ref="A1014:A1077" si="27">A1013+1</f>
         <v>282</v>
       </c>
       <c r="B1014" s="2">
-        <f t="shared" ref="B1014:B1077" si="25">B1013+1</f>
+        <f t="shared" ref="B1014:B1077" si="28">B1013+1</f>
         <v>40459</v>
       </c>
       <c r="C1014" s="2">
-        <f t="shared" ref="C1014:C1077" si="26">C1013+1</f>
+        <f t="shared" ref="C1014:C1077" si="29">C1013+1</f>
         <v>40458</v>
       </c>
       <c r="D1014" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E1014" s="1" t="b">
         <v>0</v>
@@ -23187,19 +23791,19 @@
     </row>
     <row r="1015" spans="1:6">
       <c r="A1015">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>283</v>
       </c>
       <c r="B1015" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40460</v>
       </c>
       <c r="C1015" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40459</v>
       </c>
       <c r="D1015" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E1015" s="1" t="b">
         <v>0</v>
@@ -23210,19 +23814,19 @@
     </row>
     <row r="1016" spans="1:6">
       <c r="A1016">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>284</v>
       </c>
       <c r="B1016" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40461</v>
       </c>
       <c r="C1016" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40460</v>
       </c>
       <c r="D1016" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E1016" s="1" t="b">
         <v>0</v>
@@ -23233,19 +23837,19 @@
     </row>
     <row r="1017" spans="1:6">
       <c r="A1017">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>285</v>
       </c>
       <c r="B1017" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40462</v>
       </c>
       <c r="C1017" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40461</v>
       </c>
       <c r="D1017" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1017" s="1" t="b">
         <v>1</v>
@@ -23256,15 +23860,15 @@
     </row>
     <row r="1018" spans="1:6">
       <c r="A1018">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>286</v>
       </c>
       <c r="B1018" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40463</v>
       </c>
       <c r="C1018" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40462</v>
       </c>
       <c r="D1018" s="1">
@@ -23279,19 +23883,19 @@
     </row>
     <row r="1019" spans="1:6">
       <c r="A1019">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>287</v>
       </c>
       <c r="B1019" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40464</v>
       </c>
       <c r="C1019" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40463</v>
       </c>
       <c r="D1019" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E1019" s="1" t="b">
         <v>0</v>
@@ -23302,19 +23906,19 @@
     </row>
     <row r="1020" spans="1:6">
       <c r="A1020">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>288</v>
       </c>
       <c r="B1020" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40465</v>
       </c>
       <c r="C1020" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40464</v>
       </c>
       <c r="D1020" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E1020" s="1" t="b">
         <v>0</v>
@@ -23325,19 +23929,19 @@
     </row>
     <row r="1021" spans="1:6">
       <c r="A1021">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>289</v>
       </c>
       <c r="B1021" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40466</v>
       </c>
       <c r="C1021" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40465</v>
       </c>
       <c r="D1021" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E1021" s="1" t="b">
         <v>0</v>
@@ -23348,19 +23952,19 @@
     </row>
     <row r="1022" spans="1:6">
       <c r="A1022">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>290</v>
       </c>
       <c r="B1022" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40467</v>
       </c>
       <c r="C1022" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40466</v>
       </c>
       <c r="D1022" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E1022" s="1" t="b">
         <v>0</v>
@@ -23371,19 +23975,19 @@
     </row>
     <row r="1023" spans="1:6">
       <c r="A1023">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>291</v>
       </c>
       <c r="B1023" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40468</v>
       </c>
       <c r="C1023" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40467</v>
       </c>
       <c r="D1023" s="1">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E1023" s="1" t="b">
         <v>0</v>
@@ -23394,19 +23998,19 @@
     </row>
     <row r="1024" spans="1:6">
       <c r="A1024">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>292</v>
       </c>
       <c r="B1024" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40469</v>
       </c>
       <c r="C1024" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40468</v>
       </c>
       <c r="D1024" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1024" s="1" t="b">
         <v>1</v>
@@ -23417,19 +24021,19 @@
     </row>
     <row r="1025" spans="1:6">
       <c r="A1025">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>293</v>
       </c>
       <c r="B1025" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40470</v>
       </c>
       <c r="C1025" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40469</v>
       </c>
       <c r="D1025" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1025" s="1" t="b">
         <v>1</v>
@@ -23440,19 +24044,19 @@
     </row>
     <row r="1026" spans="1:6">
       <c r="A1026">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>294</v>
       </c>
       <c r="B1026" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40471</v>
       </c>
       <c r="C1026" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40470</v>
       </c>
       <c r="D1026" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E1026" s="1" t="b">
         <v>0</v>
@@ -23463,19 +24067,19 @@
     </row>
     <row r="1027" spans="1:6">
       <c r="A1027">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>295</v>
       </c>
       <c r="B1027" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40472</v>
       </c>
       <c r="C1027" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40471</v>
       </c>
       <c r="D1027" s="1">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E1027" s="1" t="b">
         <v>0</v>
@@ -23486,19 +24090,19 @@
     </row>
     <row r="1028" spans="1:6">
       <c r="A1028">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>296</v>
       </c>
       <c r="B1028" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40473</v>
       </c>
       <c r="C1028" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40472</v>
       </c>
       <c r="D1028" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E1028" s="1" t="b">
         <v>0</v>
@@ -23509,19 +24113,19 @@
     </row>
     <row r="1029" spans="1:6">
       <c r="A1029">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>297</v>
       </c>
       <c r="B1029" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40474</v>
       </c>
       <c r="C1029" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40473</v>
       </c>
       <c r="D1029" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E1029" s="1" t="b">
         <v>0</v>
@@ -23532,19 +24136,19 @@
     </row>
     <row r="1030" spans="1:6">
       <c r="A1030">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>298</v>
       </c>
       <c r="B1030" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40475</v>
       </c>
       <c r="C1030" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40474</v>
       </c>
       <c r="D1030" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E1030" s="1" t="b">
         <v>0</v>
@@ -23555,19 +24159,19 @@
     </row>
     <row r="1031" spans="1:6">
       <c r="A1031">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>299</v>
       </c>
       <c r="B1031" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40476</v>
       </c>
       <c r="C1031" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40475</v>
       </c>
       <c r="D1031" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1031" s="1" t="b">
         <v>1</v>
@@ -23578,15 +24182,15 @@
     </row>
     <row r="1032" spans="1:6">
       <c r="A1032">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>300</v>
       </c>
       <c r="B1032" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40477</v>
       </c>
       <c r="C1032" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40476</v>
       </c>
       <c r="D1032" s="1">
@@ -23601,19 +24205,19 @@
     </row>
     <row r="1033" spans="1:6">
       <c r="A1033">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>301</v>
       </c>
       <c r="B1033" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40478</v>
       </c>
       <c r="C1033" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40477</v>
       </c>
       <c r="D1033" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E1033" s="1" t="b">
         <v>0</v>
@@ -23624,19 +24228,19 @@
     </row>
     <row r="1034" spans="1:6">
       <c r="A1034">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>302</v>
       </c>
       <c r="B1034" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40479</v>
       </c>
       <c r="C1034" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40478</v>
       </c>
       <c r="D1034" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E1034" s="1" t="b">
         <v>0</v>
@@ -23647,19 +24251,19 @@
     </row>
     <row r="1035" spans="1:6">
       <c r="A1035">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>303</v>
       </c>
       <c r="B1035" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40480</v>
       </c>
       <c r="C1035" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40479</v>
       </c>
       <c r="D1035" s="1">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E1035" s="1" t="b">
         <v>0</v>
@@ -23670,19 +24274,19 @@
     </row>
     <row r="1036" spans="1:6">
       <c r="A1036">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>304</v>
       </c>
       <c r="B1036" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40481</v>
       </c>
       <c r="C1036" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40480</v>
       </c>
       <c r="D1036" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E1036" s="1" t="b">
         <v>0</v>
@@ -23693,19 +24297,19 @@
     </row>
     <row r="1037" spans="1:6">
       <c r="A1037">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>305</v>
       </c>
       <c r="B1037" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40482</v>
       </c>
       <c r="C1037" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40481</v>
       </c>
       <c r="D1037" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E1037" s="1" t="b">
         <v>0</v>
@@ -23716,19 +24320,19 @@
     </row>
     <row r="1038" spans="1:6">
       <c r="A1038">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>306</v>
       </c>
       <c r="B1038" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40483</v>
       </c>
       <c r="C1038" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40482</v>
       </c>
       <c r="D1038" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1038" s="1" t="b">
         <v>1</v>
@@ -23739,19 +24343,19 @@
     </row>
     <row r="1039" spans="1:6">
       <c r="A1039">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>307</v>
       </c>
       <c r="B1039" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40484</v>
       </c>
       <c r="C1039" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40483</v>
       </c>
       <c r="D1039" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1039" s="1" t="b">
         <v>1</v>
@@ -23762,19 +24366,19 @@
     </row>
     <row r="1040" spans="1:6">
       <c r="A1040">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>308</v>
       </c>
       <c r="B1040" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40485</v>
       </c>
       <c r="C1040" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40484</v>
       </c>
       <c r="D1040" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E1040" s="1" t="b">
         <v>0</v>
@@ -23785,19 +24389,19 @@
     </row>
     <row r="1041" spans="1:6">
       <c r="A1041">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>309</v>
       </c>
       <c r="B1041" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40486</v>
       </c>
       <c r="C1041" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40485</v>
       </c>
       <c r="D1041" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E1041" s="1" t="b">
         <v>0</v>
@@ -23808,19 +24412,19 @@
     </row>
     <row r="1042" spans="1:6">
       <c r="A1042">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>310</v>
       </c>
       <c r="B1042" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40487</v>
       </c>
       <c r="C1042" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40486</v>
       </c>
       <c r="D1042" s="1">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E1042" s="1" t="b">
         <v>0</v>
@@ -23831,19 +24435,19 @@
     </row>
     <row r="1043" spans="1:6">
       <c r="A1043">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>311</v>
       </c>
       <c r="B1043" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40488</v>
       </c>
       <c r="C1043" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40487</v>
       </c>
       <c r="D1043" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1043" s="1" t="b">
         <v>0</v>
@@ -23854,19 +24458,19 @@
     </row>
     <row r="1044" spans="1:6">
       <c r="A1044">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>312</v>
       </c>
       <c r="B1044" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40489</v>
       </c>
       <c r="C1044" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40488</v>
       </c>
       <c r="D1044" s="1">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E1044" s="1" t="b">
         <v>0</v>
@@ -23877,19 +24481,19 @@
     </row>
     <row r="1045" spans="1:6">
       <c r="A1045">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>313</v>
       </c>
       <c r="B1045" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40490</v>
       </c>
       <c r="C1045" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40489</v>
       </c>
       <c r="D1045" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1045" s="1" t="b">
         <v>1</v>
@@ -23900,19 +24504,19 @@
     </row>
     <row r="1046" spans="1:6">
       <c r="A1046">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>314</v>
       </c>
       <c r="B1046" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40491</v>
       </c>
       <c r="C1046" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40490</v>
       </c>
       <c r="D1046" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1046" s="1" t="b">
         <v>1</v>
@@ -23923,19 +24527,19 @@
     </row>
     <row r="1047" spans="1:6">
       <c r="A1047">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>315</v>
       </c>
       <c r="B1047" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40492</v>
       </c>
       <c r="C1047" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40491</v>
       </c>
       <c r="D1047" s="1">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E1047" s="1" t="b">
         <v>0</v>
@@ -23946,19 +24550,19 @@
     </row>
     <row r="1048" spans="1:6">
       <c r="A1048">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>316</v>
       </c>
       <c r="B1048" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40493</v>
       </c>
       <c r="C1048" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40492</v>
       </c>
       <c r="D1048" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E1048" s="1" t="b">
         <v>0</v>
@@ -23969,19 +24573,19 @@
     </row>
     <row r="1049" spans="1:6">
       <c r="A1049">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>317</v>
       </c>
       <c r="B1049" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40494</v>
       </c>
       <c r="C1049" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40493</v>
       </c>
       <c r="D1049" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E1049" s="1" t="b">
         <v>0</v>
@@ -23992,19 +24596,19 @@
     </row>
     <row r="1050" spans="1:6">
       <c r="A1050">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>318</v>
       </c>
       <c r="B1050" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40495</v>
       </c>
       <c r="C1050" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40494</v>
       </c>
       <c r="D1050" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1050" s="1" t="b">
         <v>0</v>
@@ -24015,19 +24619,19 @@
     </row>
     <row r="1051" spans="1:6">
       <c r="A1051">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>319</v>
       </c>
       <c r="B1051" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40496</v>
       </c>
       <c r="C1051" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40495</v>
       </c>
       <c r="D1051" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E1051" s="1" t="b">
         <v>0</v>
@@ -24038,19 +24642,19 @@
     </row>
     <row r="1052" spans="1:6">
       <c r="A1052">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>320</v>
       </c>
       <c r="B1052" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40497</v>
       </c>
       <c r="C1052" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40496</v>
       </c>
       <c r="D1052" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1052" s="1" t="b">
         <v>1</v>
@@ -24061,19 +24665,19 @@
     </row>
     <row r="1053" spans="1:6">
       <c r="A1053">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>321</v>
       </c>
       <c r="B1053" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40498</v>
       </c>
       <c r="C1053" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40497</v>
       </c>
       <c r="D1053" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1053" s="1" t="b">
         <v>1</v>
@@ -24084,19 +24688,19 @@
     </row>
     <row r="1054" spans="1:6">
       <c r="A1054">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>322</v>
       </c>
       <c r="B1054" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40499</v>
       </c>
       <c r="C1054" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40498</v>
       </c>
       <c r="D1054" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E1054" s="1" t="b">
         <v>0</v>
@@ -24107,19 +24711,19 @@
     </row>
     <row r="1055" spans="1:6">
       <c r="A1055">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>323</v>
       </c>
       <c r="B1055" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40500</v>
       </c>
       <c r="C1055" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40499</v>
       </c>
       <c r="D1055" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E1055" s="1" t="b">
         <v>0</v>
@@ -24130,19 +24734,19 @@
     </row>
     <row r="1056" spans="1:6">
       <c r="A1056">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>324</v>
       </c>
       <c r="B1056" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40501</v>
       </c>
       <c r="C1056" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40500</v>
       </c>
       <c r="D1056" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E1056" s="1" t="b">
         <v>0</v>
@@ -24153,19 +24757,19 @@
     </row>
     <row r="1057" spans="1:6">
       <c r="A1057">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>325</v>
       </c>
       <c r="B1057" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40502</v>
       </c>
       <c r="C1057" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40501</v>
       </c>
       <c r="D1057" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E1057" s="1" t="b">
         <v>0</v>
@@ -24176,19 +24780,19 @@
     </row>
     <row r="1058" spans="1:6">
       <c r="A1058">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>326</v>
       </c>
       <c r="B1058" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40503</v>
       </c>
       <c r="C1058" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40502</v>
       </c>
       <c r="D1058" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E1058" s="1" t="b">
         <v>0</v>
@@ -24199,19 +24803,19 @@
     </row>
     <row r="1059" spans="1:6">
       <c r="A1059">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>327</v>
       </c>
       <c r="B1059" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40504</v>
       </c>
       <c r="C1059" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40503</v>
       </c>
       <c r="D1059" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1059" s="1" t="b">
         <v>1</v>
@@ -24222,15 +24826,15 @@
     </row>
     <row r="1060" spans="1:6">
       <c r="A1060">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>328</v>
       </c>
       <c r="B1060" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40505</v>
       </c>
       <c r="C1060" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40504</v>
       </c>
       <c r="D1060" s="1">
@@ -24245,19 +24849,19 @@
     </row>
     <row r="1061" spans="1:6">
       <c r="A1061">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>329</v>
       </c>
       <c r="B1061" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40506</v>
       </c>
       <c r="C1061" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40505</v>
       </c>
       <c r="D1061" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E1061" s="1" t="b">
         <v>0</v>
@@ -24268,19 +24872,19 @@
     </row>
     <row r="1062" spans="1:6">
       <c r="A1062">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>330</v>
       </c>
       <c r="B1062" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40507</v>
       </c>
       <c r="C1062" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40506</v>
       </c>
       <c r="D1062" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E1062" s="1" t="b">
         <v>0</v>
@@ -24291,19 +24895,19 @@
     </row>
     <row r="1063" spans="1:6">
       <c r="A1063">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>331</v>
       </c>
       <c r="B1063" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40508</v>
       </c>
       <c r="C1063" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40507</v>
       </c>
       <c r="D1063" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E1063" s="1" t="b">
         <v>0</v>
@@ -24314,19 +24918,19 @@
     </row>
     <row r="1064" spans="1:6">
       <c r="A1064">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>332</v>
       </c>
       <c r="B1064" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40509</v>
       </c>
       <c r="C1064" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40508</v>
       </c>
       <c r="D1064" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E1064" s="1" t="b">
         <v>0</v>
@@ -24337,19 +24941,19 @@
     </row>
     <row r="1065" spans="1:6">
       <c r="A1065">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>333</v>
       </c>
       <c r="B1065" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40510</v>
       </c>
       <c r="C1065" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40509</v>
       </c>
       <c r="D1065" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E1065" s="1" t="b">
         <v>0</v>
@@ -24360,19 +24964,19 @@
     </row>
     <row r="1066" spans="1:6">
       <c r="A1066">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>334</v>
       </c>
       <c r="B1066" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40511</v>
       </c>
       <c r="C1066" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40510</v>
       </c>
       <c r="D1066" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1066" s="1" t="b">
         <v>1</v>
@@ -24383,19 +24987,19 @@
     </row>
     <row r="1067" spans="1:6">
       <c r="A1067">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>335</v>
       </c>
       <c r="B1067" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40512</v>
       </c>
       <c r="C1067" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40511</v>
       </c>
       <c r="D1067" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1067" s="1" t="b">
         <v>1</v>
@@ -24406,19 +25010,19 @@
     </row>
     <row r="1068" spans="1:6">
       <c r="A1068">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>336</v>
       </c>
       <c r="B1068" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40513</v>
       </c>
       <c r="C1068" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40512</v>
       </c>
       <c r="D1068" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E1068" s="1" t="b">
         <v>0</v>
@@ -24429,19 +25033,19 @@
     </row>
     <row r="1069" spans="1:6">
       <c r="A1069">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>337</v>
       </c>
       <c r="B1069" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40514</v>
       </c>
       <c r="C1069" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40513</v>
       </c>
       <c r="D1069" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E1069" s="1" t="b">
         <v>0</v>
@@ -24452,19 +25056,19 @@
     </row>
     <row r="1070" spans="1:6">
       <c r="A1070">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>338</v>
       </c>
       <c r="B1070" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40515</v>
       </c>
       <c r="C1070" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40514</v>
       </c>
       <c r="D1070" s="1">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E1070" s="1" t="b">
         <v>0</v>
@@ -24475,19 +25079,19 @@
     </row>
     <row r="1071" spans="1:6">
       <c r="A1071">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>339</v>
       </c>
       <c r="B1071" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40516</v>
       </c>
       <c r="C1071" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40515</v>
       </c>
       <c r="D1071" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E1071" s="1" t="b">
         <v>0</v>
@@ -24498,19 +25102,19 @@
     </row>
     <row r="1072" spans="1:6">
       <c r="A1072">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>340</v>
       </c>
       <c r="B1072" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40517</v>
       </c>
       <c r="C1072" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40516</v>
       </c>
       <c r="D1072" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E1072" s="1" t="b">
         <v>0</v>
@@ -24521,19 +25125,19 @@
     </row>
     <row r="1073" spans="1:6">
       <c r="A1073">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>341</v>
       </c>
       <c r="B1073" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40518</v>
       </c>
       <c r="C1073" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40517</v>
       </c>
       <c r="D1073" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1073" s="1" t="b">
         <v>1</v>
@@ -24544,19 +25148,19 @@
     </row>
     <row r="1074" spans="1:6">
       <c r="A1074">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>342</v>
       </c>
       <c r="B1074" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40519</v>
       </c>
       <c r="C1074" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40518</v>
       </c>
       <c r="D1074" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1074" s="1" t="b">
         <v>1</v>
@@ -24567,19 +25171,19 @@
     </row>
     <row r="1075" spans="1:6">
       <c r="A1075">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>343</v>
       </c>
       <c r="B1075" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40520</v>
       </c>
       <c r="C1075" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40519</v>
       </c>
       <c r="D1075" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E1075" s="1" t="b">
         <v>0</v>
@@ -24590,19 +25194,19 @@
     </row>
     <row r="1076" spans="1:6">
       <c r="A1076">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>344</v>
       </c>
       <c r="B1076" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40521</v>
       </c>
       <c r="C1076" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40520</v>
       </c>
       <c r="D1076" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E1076" s="1" t="b">
         <v>0</v>
@@ -24613,19 +25217,19 @@
     </row>
     <row r="1077" spans="1:6">
       <c r="A1077">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>345</v>
       </c>
       <c r="B1077" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>40522</v>
       </c>
       <c r="C1077" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>40521</v>
       </c>
       <c r="D1077" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E1077" s="1" t="b">
         <v>0</v>
@@ -24636,19 +25240,19 @@
     </row>
     <row r="1078" spans="1:6">
       <c r="A1078">
-        <f t="shared" ref="A1078:A1098" si="27">A1077+1</f>
+        <f t="shared" ref="A1078:A1141" si="30">A1077+1</f>
         <v>346</v>
       </c>
       <c r="B1078" s="2">
-        <f t="shared" ref="B1078:B1098" si="28">B1077+1</f>
+        <f t="shared" ref="B1078:B1141" si="31">B1077+1</f>
         <v>40523</v>
       </c>
       <c r="C1078" s="2">
-        <f t="shared" ref="C1078:C1098" si="29">C1077+1</f>
+        <f t="shared" ref="C1078:C1141" si="32">C1077+1</f>
         <v>40522</v>
       </c>
       <c r="D1078" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E1078" s="1" t="b">
         <v>0</v>
@@ -24659,19 +25263,19 @@
     </row>
     <row r="1079" spans="1:6">
       <c r="A1079">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>347</v>
       </c>
       <c r="B1079" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40524</v>
       </c>
       <c r="C1079" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40523</v>
       </c>
       <c r="D1079" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E1079" s="1" t="b">
         <v>0</v>
@@ -24682,19 +25286,19 @@
     </row>
     <row r="1080" spans="1:6">
       <c r="A1080">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>348</v>
       </c>
       <c r="B1080" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40525</v>
       </c>
       <c r="C1080" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40524</v>
       </c>
       <c r="D1080" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1080" s="1" t="b">
         <v>1</v>
@@ -24705,19 +25309,19 @@
     </row>
     <row r="1081" spans="1:6">
       <c r="A1081">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>349</v>
       </c>
       <c r="B1081" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40526</v>
       </c>
       <c r="C1081" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40525</v>
       </c>
       <c r="D1081" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1081" s="1" t="b">
         <v>1</v>
@@ -24728,19 +25332,19 @@
     </row>
     <row r="1082" spans="1:6">
       <c r="A1082">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>350</v>
       </c>
       <c r="B1082" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40527</v>
       </c>
       <c r="C1082" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40526</v>
       </c>
       <c r="D1082" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E1082" s="1" t="b">
         <v>0</v>
@@ -24751,19 +25355,19 @@
     </row>
     <row r="1083" spans="1:6">
       <c r="A1083">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>351</v>
       </c>
       <c r="B1083" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40528</v>
       </c>
       <c r="C1083" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40527</v>
       </c>
       <c r="D1083" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E1083" s="1" t="b">
         <v>0</v>
@@ -24774,19 +25378,19 @@
     </row>
     <row r="1084" spans="1:6">
       <c r="A1084">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>352</v>
       </c>
       <c r="B1084" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40529</v>
       </c>
       <c r="C1084" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40528</v>
       </c>
       <c r="D1084" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E1084" s="1" t="b">
         <v>0</v>
@@ -24797,19 +25401,19 @@
     </row>
     <row r="1085" spans="1:6">
       <c r="A1085">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>353</v>
       </c>
       <c r="B1085" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40530</v>
       </c>
       <c r="C1085" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40529</v>
       </c>
       <c r="D1085" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1085" s="1" t="b">
         <v>0</v>
@@ -24820,19 +25424,19 @@
     </row>
     <row r="1086" spans="1:6">
       <c r="A1086">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>354</v>
       </c>
       <c r="B1086" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40531</v>
       </c>
       <c r="C1086" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40530</v>
       </c>
       <c r="D1086" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E1086" s="1" t="b">
         <v>0</v>
@@ -24843,15 +25447,15 @@
     </row>
     <row r="1087" spans="1:6">
       <c r="A1087">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>355</v>
       </c>
       <c r="B1087" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40532</v>
       </c>
       <c r="C1087" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40531</v>
       </c>
       <c r="D1087" s="1">
@@ -24866,19 +25470,19 @@
     </row>
     <row r="1088" spans="1:6">
       <c r="A1088">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>356</v>
       </c>
       <c r="B1088" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40533</v>
       </c>
       <c r="C1088" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40532</v>
       </c>
       <c r="D1088" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1088" s="1" t="b">
         <v>1</v>
@@ -24889,19 +25493,19 @@
     </row>
     <row r="1089" spans="1:6">
       <c r="A1089">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>357</v>
       </c>
       <c r="B1089" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40534</v>
       </c>
       <c r="C1089" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40533</v>
       </c>
       <c r="D1089" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E1089" s="1" t="b">
         <v>0</v>
@@ -24912,19 +25516,19 @@
     </row>
     <row r="1090" spans="1:6">
       <c r="A1090">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>358</v>
       </c>
       <c r="B1090" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40535</v>
       </c>
       <c r="C1090" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40534</v>
       </c>
       <c r="D1090" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E1090" s="1" t="b">
         <v>0</v>
@@ -24935,65 +25539,65 @@
     </row>
     <row r="1091" spans="1:6">
       <c r="A1091">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>359</v>
       </c>
       <c r="B1091" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40536</v>
       </c>
       <c r="C1091" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40535</v>
       </c>
       <c r="D1091" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E1091" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F1091" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1091" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1092" spans="1:6">
       <c r="A1092">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>360</v>
       </c>
       <c r="B1092" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40537</v>
       </c>
       <c r="C1092" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40536</v>
       </c>
       <c r="D1092" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1092" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F1092" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1092" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="1093" spans="1:6">
       <c r="A1093">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>361</v>
       </c>
       <c r="B1093" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40538</v>
       </c>
       <c r="C1093" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40537</v>
       </c>
       <c r="D1093" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E1093" s="1" t="b">
         <v>0</v>
@@ -25004,15 +25608,15 @@
     </row>
     <row r="1094" spans="1:6">
       <c r="A1094">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>362</v>
       </c>
       <c r="B1094" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40539</v>
       </c>
       <c r="C1094" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40538</v>
       </c>
       <c r="D1094" s="1">
@@ -25027,19 +25631,19 @@
     </row>
     <row r="1095" spans="1:6">
       <c r="A1095">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>363</v>
       </c>
       <c r="B1095" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40540</v>
       </c>
       <c r="C1095" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40539</v>
       </c>
       <c r="D1095" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1095" s="1" t="b">
         <v>1</v>
@@ -25050,19 +25654,19 @@
     </row>
     <row r="1096" spans="1:6">
       <c r="A1096">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>364</v>
       </c>
       <c r="B1096" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40541</v>
       </c>
       <c r="C1096" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40540</v>
       </c>
       <c r="D1096" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E1096" s="1" t="b">
         <v>0</v>
@@ -25073,19 +25677,19 @@
     </row>
     <row r="1097" spans="1:6">
       <c r="A1097">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>365</v>
       </c>
       <c r="B1097" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40542</v>
       </c>
       <c r="C1097" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40541</v>
       </c>
       <c r="D1097" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E1097" s="1" t="b">
         <v>0</v>
@@ -25096,15 +25700,15 @@
     </row>
     <row r="1098" spans="1:6">
       <c r="A1098">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>366</v>
       </c>
       <c r="B1098" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40543</v>
       </c>
       <c r="C1098" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>40542</v>
       </c>
       <c r="D1098" s="1">
@@ -25115,85 +25719,2015 @@
       </c>
       <c r="F1098" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099">
+        <f t="shared" si="30"/>
+        <v>367</v>
+      </c>
+      <c r="B1099" s="2">
+        <f t="shared" si="31"/>
+        <v>40544</v>
+      </c>
+      <c r="C1099" s="2">
+        <f t="shared" si="32"/>
+        <v>40543</v>
+      </c>
+      <c r="D1099" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1099" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1099" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100">
+        <f t="shared" si="30"/>
+        <v>368</v>
+      </c>
+      <c r="B1100" s="2">
+        <f t="shared" si="31"/>
+        <v>40545</v>
+      </c>
+      <c r="C1100" s="2">
+        <f t="shared" si="32"/>
+        <v>40544</v>
+      </c>
+      <c r="D1100" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101">
+        <f t="shared" si="30"/>
+        <v>369</v>
+      </c>
+      <c r="B1101" s="2">
+        <f t="shared" si="31"/>
+        <v>40546</v>
+      </c>
+      <c r="C1101" s="2">
+        <f t="shared" si="32"/>
+        <v>40545</v>
+      </c>
+      <c r="D1101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1101" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102">
+        <f t="shared" si="30"/>
+        <v>370</v>
+      </c>
+      <c r="B1102" s="2">
+        <f t="shared" si="31"/>
+        <v>40547</v>
+      </c>
+      <c r="C1102" s="2">
+        <f t="shared" si="32"/>
+        <v>40546</v>
+      </c>
+      <c r="D1102" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1102" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103">
+        <f t="shared" si="30"/>
+        <v>371</v>
+      </c>
+      <c r="B1103" s="2">
+        <f t="shared" si="31"/>
+        <v>40548</v>
+      </c>
+      <c r="C1103" s="2">
+        <f t="shared" si="32"/>
+        <v>40547</v>
+      </c>
+      <c r="D1103" s="1">
+        <v>54</v>
+      </c>
+      <c r="E1103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104">
+        <f t="shared" si="30"/>
+        <v>372</v>
+      </c>
+      <c r="B1104" s="2">
+        <f t="shared" si="31"/>
+        <v>40549</v>
+      </c>
+      <c r="C1104" s="2">
+        <f t="shared" si="32"/>
+        <v>40548</v>
+      </c>
+      <c r="D1104" s="1">
+        <v>95</v>
+      </c>
+      <c r="E1104" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105">
+        <f t="shared" si="30"/>
+        <v>373</v>
+      </c>
+      <c r="B1105" s="2">
+        <f t="shared" si="31"/>
+        <v>40550</v>
+      </c>
+      <c r="C1105" s="2">
+        <f t="shared" si="32"/>
+        <v>40549</v>
+      </c>
+      <c r="D1105" s="1">
+        <v>86</v>
+      </c>
+      <c r="E1105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106">
+        <f t="shared" si="30"/>
+        <v>374</v>
+      </c>
+      <c r="B1106" s="2">
+        <f t="shared" si="31"/>
+        <v>40551</v>
+      </c>
+      <c r="C1106" s="2">
+        <f t="shared" si="32"/>
+        <v>40550</v>
+      </c>
+      <c r="D1106" s="1">
+        <v>72</v>
+      </c>
+      <c r="E1106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107">
+        <f t="shared" si="30"/>
+        <v>375</v>
+      </c>
+      <c r="B1107" s="2">
+        <f t="shared" si="31"/>
+        <v>40552</v>
+      </c>
+      <c r="C1107" s="2">
+        <f t="shared" si="32"/>
+        <v>40551</v>
+      </c>
+      <c r="D1107" s="1">
+        <v>57</v>
+      </c>
+      <c r="E1107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108">
+        <f t="shared" si="30"/>
+        <v>376</v>
+      </c>
+      <c r="B1108" s="2">
+        <f t="shared" si="31"/>
+        <v>40553</v>
+      </c>
+      <c r="C1108" s="2">
+        <f t="shared" si="32"/>
+        <v>40552</v>
+      </c>
+      <c r="D1108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1108" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109">
+        <f t="shared" si="30"/>
+        <v>377</v>
+      </c>
+      <c r="B1109" s="2">
+        <f t="shared" si="31"/>
+        <v>40554</v>
+      </c>
+      <c r="C1109" s="2">
+        <f t="shared" si="32"/>
+        <v>40553</v>
+      </c>
+      <c r="D1109" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1109" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110">
+        <f t="shared" si="30"/>
+        <v>378</v>
+      </c>
+      <c r="B1110" s="2">
+        <f t="shared" si="31"/>
+        <v>40555</v>
+      </c>
+      <c r="C1110" s="2">
+        <f t="shared" si="32"/>
+        <v>40554</v>
+      </c>
+      <c r="D1110" s="1">
+        <v>72</v>
+      </c>
+      <c r="E1110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111">
+        <f t="shared" si="30"/>
+        <v>379</v>
+      </c>
+      <c r="B1111" s="2">
+        <f t="shared" si="31"/>
+        <v>40556</v>
+      </c>
+      <c r="C1111" s="2">
+        <f t="shared" si="32"/>
+        <v>40555</v>
+      </c>
+      <c r="D1111" s="1">
+        <v>74</v>
+      </c>
+      <c r="E1111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112">
+        <f t="shared" si="30"/>
+        <v>380</v>
+      </c>
+      <c r="B1112" s="2">
+        <f t="shared" si="31"/>
+        <v>40557</v>
+      </c>
+      <c r="C1112" s="2">
+        <f t="shared" si="32"/>
+        <v>40556</v>
+      </c>
+      <c r="D1112" s="1">
+        <v>90</v>
+      </c>
+      <c r="E1112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113">
+        <f t="shared" si="30"/>
+        <v>381</v>
+      </c>
+      <c r="B1113" s="2">
+        <f t="shared" si="31"/>
+        <v>40558</v>
+      </c>
+      <c r="C1113" s="2">
+        <f t="shared" si="32"/>
+        <v>40557</v>
+      </c>
+      <c r="D1113" s="1">
+        <v>91</v>
+      </c>
+      <c r="E1113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114">
+        <f t="shared" si="30"/>
+        <v>382</v>
+      </c>
+      <c r="B1114" s="2">
+        <f t="shared" si="31"/>
+        <v>40559</v>
+      </c>
+      <c r="C1114" s="2">
+        <f t="shared" si="32"/>
+        <v>40558</v>
+      </c>
+      <c r="D1114" s="1">
+        <v>75</v>
+      </c>
+      <c r="E1114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115">
+        <f t="shared" si="30"/>
+        <v>383</v>
+      </c>
+      <c r="B1115" s="2">
+        <f t="shared" si="31"/>
+        <v>40560</v>
+      </c>
+      <c r="C1115" s="2">
+        <f t="shared" si="32"/>
+        <v>40559</v>
+      </c>
+      <c r="D1115" s="1">
+        <v>5</v>
+      </c>
+      <c r="E1115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1115" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116">
+        <f t="shared" si="30"/>
+        <v>384</v>
+      </c>
+      <c r="B1116" s="2">
+        <f t="shared" si="31"/>
+        <v>40561</v>
+      </c>
+      <c r="C1116" s="2">
+        <f t="shared" si="32"/>
+        <v>40560</v>
+      </c>
+      <c r="D1116" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1116" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117">
+        <f t="shared" si="30"/>
+        <v>385</v>
+      </c>
+      <c r="B1117" s="2">
+        <f t="shared" si="31"/>
+        <v>40562</v>
+      </c>
+      <c r="C1117" s="2">
+        <f t="shared" si="32"/>
+        <v>40561</v>
+      </c>
+      <c r="D1117" s="1">
+        <v>78</v>
+      </c>
+      <c r="E1117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6">
+      <c r="A1118">
+        <f t="shared" si="30"/>
+        <v>386</v>
+      </c>
+      <c r="B1118" s="2">
+        <f t="shared" si="31"/>
+        <v>40563</v>
+      </c>
+      <c r="C1118" s="2">
+        <f t="shared" si="32"/>
+        <v>40562</v>
+      </c>
+      <c r="D1118" s="1">
+        <v>81</v>
+      </c>
+      <c r="E1118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6">
+      <c r="A1119">
+        <f t="shared" si="30"/>
+        <v>387</v>
+      </c>
+      <c r="B1119" s="2">
+        <f t="shared" si="31"/>
+        <v>40564</v>
+      </c>
+      <c r="C1119" s="2">
+        <f t="shared" si="32"/>
+        <v>40563</v>
+      </c>
+      <c r="D1119" s="1">
+        <v>52</v>
+      </c>
+      <c r="E1119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6">
+      <c r="A1120">
+        <f t="shared" si="30"/>
+        <v>388</v>
+      </c>
+      <c r="B1120" s="2">
+        <f t="shared" si="31"/>
+        <v>40565</v>
+      </c>
+      <c r="C1120" s="2">
+        <f t="shared" si="32"/>
+        <v>40564</v>
+      </c>
+      <c r="D1120" s="1">
+        <v>61</v>
+      </c>
+      <c r="E1120" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6">
+      <c r="A1121">
+        <f t="shared" si="30"/>
+        <v>389</v>
+      </c>
+      <c r="B1121" s="2">
+        <f t="shared" si="31"/>
+        <v>40566</v>
+      </c>
+      <c r="C1121" s="2">
+        <f t="shared" si="32"/>
+        <v>40565</v>
+      </c>
+      <c r="D1121" s="1">
+        <v>80</v>
+      </c>
+      <c r="E1121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6">
+      <c r="A1122">
+        <f t="shared" si="30"/>
+        <v>390</v>
+      </c>
+      <c r="B1122" s="2">
+        <f t="shared" si="31"/>
+        <v>40567</v>
+      </c>
+      <c r="C1122" s="2">
+        <f t="shared" si="32"/>
+        <v>40566</v>
+      </c>
+      <c r="D1122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1122" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6">
+      <c r="A1123">
+        <f t="shared" si="30"/>
+        <v>391</v>
+      </c>
+      <c r="B1123" s="2">
+        <f t="shared" si="31"/>
+        <v>40568</v>
+      </c>
+      <c r="C1123" s="2">
+        <f t="shared" si="32"/>
+        <v>40567</v>
+      </c>
+      <c r="D1123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1123" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6">
+      <c r="A1124">
+        <f t="shared" si="30"/>
+        <v>392</v>
+      </c>
+      <c r="B1124" s="2">
+        <f t="shared" si="31"/>
+        <v>40569</v>
+      </c>
+      <c r="C1124" s="2">
+        <f t="shared" si="32"/>
+        <v>40568</v>
+      </c>
+      <c r="D1124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1124" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6">
+      <c r="A1125">
+        <f t="shared" si="30"/>
+        <v>393</v>
+      </c>
+      <c r="B1125" s="2">
+        <f t="shared" si="31"/>
+        <v>40570</v>
+      </c>
+      <c r="C1125" s="2">
+        <f t="shared" si="32"/>
+        <v>40569</v>
+      </c>
+      <c r="D1125" s="1">
+        <v>59</v>
+      </c>
+      <c r="E1125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6">
+      <c r="A1126">
+        <f t="shared" si="30"/>
+        <v>394</v>
+      </c>
+      <c r="B1126" s="2">
+        <f t="shared" si="31"/>
+        <v>40571</v>
+      </c>
+      <c r="C1126" s="2">
+        <f t="shared" si="32"/>
+        <v>40570</v>
+      </c>
+      <c r="D1126" s="1">
+        <v>70</v>
+      </c>
+      <c r="E1126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6">
+      <c r="A1127">
+        <f t="shared" si="30"/>
+        <v>395</v>
+      </c>
+      <c r="B1127" s="2">
+        <f t="shared" si="31"/>
+        <v>40572</v>
+      </c>
+      <c r="C1127" s="2">
+        <f t="shared" si="32"/>
+        <v>40571</v>
+      </c>
+      <c r="D1127" s="1">
+        <v>73</v>
+      </c>
+      <c r="E1127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6">
+      <c r="A1128">
+        <f t="shared" si="30"/>
+        <v>396</v>
+      </c>
+      <c r="B1128" s="2">
+        <f t="shared" si="31"/>
+        <v>40573</v>
+      </c>
+      <c r="C1128" s="2">
+        <f t="shared" si="32"/>
+        <v>40572</v>
+      </c>
+      <c r="D1128" s="1">
+        <v>65</v>
+      </c>
+      <c r="E1128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6">
+      <c r="A1129">
+        <f t="shared" si="30"/>
+        <v>397</v>
+      </c>
+      <c r="B1129" s="2">
+        <f t="shared" si="31"/>
+        <v>40574</v>
+      </c>
+      <c r="C1129" s="2">
+        <f t="shared" si="32"/>
+        <v>40573</v>
+      </c>
+      <c r="D1129" s="1">
+        <v>6</v>
+      </c>
+      <c r="E1129" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1129" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6">
+      <c r="A1130">
+        <f t="shared" si="30"/>
+        <v>398</v>
+      </c>
+      <c r="B1130" s="2">
+        <f t="shared" si="31"/>
+        <v>40575</v>
+      </c>
+      <c r="C1130" s="2">
+        <f t="shared" si="32"/>
+        <v>40574</v>
+      </c>
+      <c r="D1130" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1130" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6">
+      <c r="A1131">
+        <f t="shared" si="30"/>
+        <v>399</v>
+      </c>
+      <c r="B1131" s="2">
+        <f t="shared" si="31"/>
+        <v>40576</v>
+      </c>
+      <c r="C1131" s="2">
+        <f t="shared" si="32"/>
+        <v>40575</v>
+      </c>
+      <c r="D1131" s="1">
+        <v>71</v>
+      </c>
+      <c r="E1131" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6">
+      <c r="A1132">
+        <f t="shared" si="30"/>
+        <v>400</v>
+      </c>
+      <c r="B1132" s="2">
+        <f t="shared" si="31"/>
+        <v>40577</v>
+      </c>
+      <c r="C1132" s="2">
+        <f t="shared" si="32"/>
+        <v>40576</v>
+      </c>
+      <c r="D1132" s="1">
+        <v>81</v>
+      </c>
+      <c r="E1132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6">
+      <c r="A1133">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="B1133" s="2">
+        <f t="shared" si="31"/>
+        <v>40578</v>
+      </c>
+      <c r="C1133" s="2">
+        <f t="shared" si="32"/>
+        <v>40577</v>
+      </c>
+      <c r="D1133" s="1">
+        <v>62</v>
+      </c>
+      <c r="E1133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6">
+      <c r="A1134">
+        <f t="shared" si="30"/>
+        <v>402</v>
+      </c>
+      <c r="B1134" s="2">
+        <f t="shared" si="31"/>
+        <v>40579</v>
+      </c>
+      <c r="C1134" s="2">
+        <f t="shared" si="32"/>
+        <v>40578</v>
+      </c>
+      <c r="D1134" s="1">
+        <v>95</v>
+      </c>
+      <c r="E1134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6">
+      <c r="A1135">
+        <f t="shared" si="30"/>
+        <v>403</v>
+      </c>
+      <c r="B1135" s="2">
+        <f t="shared" si="31"/>
+        <v>40580</v>
+      </c>
+      <c r="C1135" s="2">
+        <f t="shared" si="32"/>
+        <v>40579</v>
+      </c>
+      <c r="D1135" s="1">
+        <v>95</v>
+      </c>
+      <c r="E1135" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6">
+      <c r="A1136">
+        <f t="shared" si="30"/>
+        <v>404</v>
+      </c>
+      <c r="B1136" s="2">
+        <f t="shared" si="31"/>
+        <v>40581</v>
+      </c>
+      <c r="C1136" s="2">
+        <f t="shared" si="32"/>
+        <v>40580</v>
+      </c>
+      <c r="D1136" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1136" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6">
+      <c r="A1137">
+        <f t="shared" si="30"/>
+        <v>405</v>
+      </c>
+      <c r="B1137" s="2">
+        <f t="shared" si="31"/>
+        <v>40582</v>
+      </c>
+      <c r="C1137" s="2">
+        <f t="shared" si="32"/>
+        <v>40581</v>
+      </c>
+      <c r="D1137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1137" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1137" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6">
+      <c r="A1138">
+        <f t="shared" si="30"/>
+        <v>406</v>
+      </c>
+      <c r="B1138" s="2">
+        <f t="shared" si="31"/>
+        <v>40583</v>
+      </c>
+      <c r="C1138" s="2">
+        <f t="shared" si="32"/>
+        <v>40582</v>
+      </c>
+      <c r="D1138" s="1">
+        <v>85</v>
+      </c>
+      <c r="E1138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6">
+      <c r="A1139">
+        <f t="shared" si="30"/>
+        <v>407</v>
+      </c>
+      <c r="B1139" s="2">
+        <f t="shared" si="31"/>
+        <v>40584</v>
+      </c>
+      <c r="C1139" s="2">
+        <f t="shared" si="32"/>
+        <v>40583</v>
+      </c>
+      <c r="D1139" s="1">
+        <v>72</v>
+      </c>
+      <c r="E1139" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6">
+      <c r="A1140">
+        <f t="shared" si="30"/>
+        <v>408</v>
+      </c>
+      <c r="B1140" s="2">
+        <f t="shared" si="31"/>
+        <v>40585</v>
+      </c>
+      <c r="C1140" s="2">
+        <f t="shared" si="32"/>
+        <v>40584</v>
+      </c>
+      <c r="D1140" s="1">
+        <v>78</v>
+      </c>
+      <c r="E1140" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6">
+      <c r="A1141">
+        <f t="shared" si="30"/>
+        <v>409</v>
+      </c>
+      <c r="B1141" s="2">
+        <f t="shared" si="31"/>
+        <v>40586</v>
+      </c>
+      <c r="C1141" s="2">
+        <f t="shared" si="32"/>
+        <v>40585</v>
+      </c>
+      <c r="D1141" s="1">
+        <v>61</v>
+      </c>
+      <c r="E1141" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6">
+      <c r="A1142">
+        <f t="shared" ref="A1142:C1157" si="33">A1141+1</f>
+        <v>410</v>
+      </c>
+      <c r="B1142" s="2">
+        <f t="shared" si="33"/>
+        <v>40587</v>
+      </c>
+      <c r="C1142" s="2">
+        <f t="shared" si="33"/>
+        <v>40586</v>
+      </c>
+      <c r="D1142" s="1">
+        <v>52</v>
+      </c>
+      <c r="E1142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6">
+      <c r="A1143">
+        <f t="shared" si="33"/>
+        <v>411</v>
+      </c>
+      <c r="B1143" s="2">
+        <f t="shared" si="33"/>
+        <v>40588</v>
+      </c>
+      <c r="C1143" s="2">
+        <f t="shared" si="33"/>
+        <v>40587</v>
+      </c>
+      <c r="D1143" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1143" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1143" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6">
+      <c r="A1144">
+        <f t="shared" si="33"/>
+        <v>412</v>
+      </c>
+      <c r="B1144" s="2">
+        <f t="shared" si="33"/>
+        <v>40589</v>
+      </c>
+      <c r="C1144" s="2">
+        <f t="shared" si="33"/>
+        <v>40588</v>
+      </c>
+      <c r="D1144" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1144" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1144" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6">
+      <c r="A1145">
+        <f t="shared" si="33"/>
+        <v>413</v>
+      </c>
+      <c r="B1145" s="2">
+        <f t="shared" si="33"/>
+        <v>40590</v>
+      </c>
+      <c r="C1145" s="2">
+        <f t="shared" si="33"/>
+        <v>40589</v>
+      </c>
+      <c r="D1145" s="1">
+        <v>77</v>
+      </c>
+      <c r="E1145" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6">
+      <c r="A1146">
+        <f t="shared" si="33"/>
+        <v>414</v>
+      </c>
+      <c r="B1146" s="2">
+        <f t="shared" si="33"/>
+        <v>40591</v>
+      </c>
+      <c r="C1146" s="2">
+        <f t="shared" si="33"/>
+        <v>40590</v>
+      </c>
+      <c r="D1146" s="1">
+        <v>94</v>
+      </c>
+      <c r="E1146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6">
+      <c r="A1147">
+        <f t="shared" si="33"/>
+        <v>415</v>
+      </c>
+      <c r="B1147" s="2">
+        <f t="shared" si="33"/>
+        <v>40592</v>
+      </c>
+      <c r="C1147" s="2">
+        <f t="shared" si="33"/>
+        <v>40591</v>
+      </c>
+      <c r="D1147" s="1">
+        <v>48</v>
+      </c>
+      <c r="E1147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6">
+      <c r="A1148">
+        <f t="shared" si="33"/>
+        <v>416</v>
+      </c>
+      <c r="B1148" s="2">
+        <f t="shared" si="33"/>
+        <v>40593</v>
+      </c>
+      <c r="C1148" s="2">
+        <f t="shared" si="33"/>
+        <v>40592</v>
+      </c>
+      <c r="D1148" s="1">
+        <v>61</v>
+      </c>
+      <c r="E1148" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6">
+      <c r="A1149">
+        <f t="shared" si="33"/>
+        <v>417</v>
+      </c>
+      <c r="B1149" s="2">
+        <f t="shared" si="33"/>
+        <v>40594</v>
+      </c>
+      <c r="C1149" s="2">
+        <f t="shared" si="33"/>
+        <v>40593</v>
+      </c>
+      <c r="D1149" s="1">
+        <v>58</v>
+      </c>
+      <c r="E1149" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6">
+      <c r="A1150">
+        <f t="shared" si="33"/>
+        <v>418</v>
+      </c>
+      <c r="B1150" s="2">
+        <f t="shared" si="33"/>
+        <v>40595</v>
+      </c>
+      <c r="C1150" s="2">
+        <f t="shared" si="33"/>
+        <v>40594</v>
+      </c>
+      <c r="D1150" s="1">
+        <v>8</v>
+      </c>
+      <c r="E1150" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1150" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6">
+      <c r="A1151">
+        <f t="shared" si="33"/>
+        <v>419</v>
+      </c>
+      <c r="B1151" s="2">
+        <f t="shared" si="33"/>
+        <v>40596</v>
+      </c>
+      <c r="C1151" s="2">
+        <f t="shared" si="33"/>
+        <v>40595</v>
+      </c>
+      <c r="D1151" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1151" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1151" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6">
+      <c r="A1152">
+        <f t="shared" si="33"/>
+        <v>420</v>
+      </c>
+      <c r="B1152" s="2">
+        <f t="shared" si="33"/>
+        <v>40597</v>
+      </c>
+      <c r="C1152" s="2">
+        <f t="shared" si="33"/>
+        <v>40596</v>
+      </c>
+      <c r="D1152" s="1">
+        <v>55</v>
+      </c>
+      <c r="E1152" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6">
+      <c r="A1153">
+        <f t="shared" si="33"/>
+        <v>421</v>
+      </c>
+      <c r="B1153" s="2">
+        <f t="shared" si="33"/>
+        <v>40598</v>
+      </c>
+      <c r="C1153" s="2">
+        <f t="shared" si="33"/>
+        <v>40597</v>
+      </c>
+      <c r="D1153" s="1">
+        <v>69</v>
+      </c>
+      <c r="E1153" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6">
+      <c r="A1154">
+        <f t="shared" si="33"/>
+        <v>422</v>
+      </c>
+      <c r="B1154" s="2">
+        <f t="shared" si="33"/>
+        <v>40599</v>
+      </c>
+      <c r="C1154" s="2">
+        <f t="shared" si="33"/>
+        <v>40598</v>
+      </c>
+      <c r="D1154" s="1">
+        <v>62</v>
+      </c>
+      <c r="E1154" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6">
+      <c r="A1155">
+        <f t="shared" ref="A1155:B1155" si="34">A1154+1</f>
+        <v>423</v>
+      </c>
+      <c r="B1155" s="2">
+        <f t="shared" si="34"/>
+        <v>40600</v>
+      </c>
+      <c r="C1155" s="2">
+        <f t="shared" si="33"/>
+        <v>40599</v>
+      </c>
+      <c r="D1155" s="1">
+        <v>83</v>
+      </c>
+      <c r="E1155" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6">
+      <c r="A1156">
+        <f t="shared" ref="A1156:B1156" si="35">A1155+1</f>
+        <v>424</v>
+      </c>
+      <c r="B1156" s="2">
+        <f t="shared" si="35"/>
+        <v>40601</v>
+      </c>
+      <c r="C1156" s="2">
+        <f t="shared" si="33"/>
+        <v>40600</v>
+      </c>
+      <c r="D1156" s="1">
+        <v>68</v>
+      </c>
+      <c r="E1156" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6">
+      <c r="A1157">
+        <f t="shared" ref="A1157:B1157" si="36">A1156+1</f>
+        <v>425</v>
+      </c>
+      <c r="B1157" s="2">
+        <f t="shared" si="36"/>
+        <v>40602</v>
+      </c>
+      <c r="C1157" s="2">
+        <f t="shared" si="33"/>
+        <v>40601</v>
+      </c>
+      <c r="D1157" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1157" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1157" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6">
+      <c r="A1158">
+        <f t="shared" ref="A1158:C1170" si="37">A1157+1</f>
+        <v>426</v>
+      </c>
+      <c r="B1158" s="2">
+        <f t="shared" si="37"/>
+        <v>40603</v>
+      </c>
+      <c r="C1158" s="2">
+        <f t="shared" si="37"/>
+        <v>40602</v>
+      </c>
+      <c r="D1158" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1158" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1158" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6">
+      <c r="A1159">
+        <f t="shared" ref="A1159:B1159" si="38">A1158+1</f>
+        <v>427</v>
+      </c>
+      <c r="B1159" s="2">
+        <f t="shared" si="38"/>
+        <v>40604</v>
+      </c>
+      <c r="C1159" s="2">
+        <f t="shared" si="37"/>
+        <v>40603</v>
+      </c>
+      <c r="D1159" s="1">
+        <v>103</v>
+      </c>
+      <c r="E1159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6">
+      <c r="A1160">
+        <f t="shared" ref="A1160:B1160" si="39">A1159+1</f>
+        <v>428</v>
+      </c>
+      <c r="B1160" s="2">
+        <f t="shared" si="39"/>
+        <v>40605</v>
+      </c>
+      <c r="C1160" s="2">
+        <f t="shared" si="37"/>
+        <v>40604</v>
+      </c>
+      <c r="D1160" s="1">
+        <v>98</v>
+      </c>
+      <c r="E1160" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6">
+      <c r="A1161">
+        <f t="shared" ref="A1161:B1161" si="40">A1160+1</f>
+        <v>429</v>
+      </c>
+      <c r="B1161" s="2">
+        <f t="shared" si="40"/>
+        <v>40606</v>
+      </c>
+      <c r="C1161" s="2">
+        <f t="shared" si="37"/>
+        <v>40605</v>
+      </c>
+      <c r="D1161" s="1">
+        <v>95</v>
+      </c>
+      <c r="E1161" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6">
+      <c r="A1162">
+        <f t="shared" ref="A1162:B1162" si="41">A1161+1</f>
+        <v>430</v>
+      </c>
+      <c r="B1162" s="2">
+        <f t="shared" si="41"/>
+        <v>40607</v>
+      </c>
+      <c r="C1162" s="2">
+        <f t="shared" si="37"/>
+        <v>40606</v>
+      </c>
+      <c r="D1162" s="1">
+        <v>51</v>
+      </c>
+      <c r="E1162" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6">
+      <c r="A1163">
+        <f t="shared" ref="A1163:B1163" si="42">A1162+1</f>
+        <v>431</v>
+      </c>
+      <c r="B1163" s="2">
+        <f t="shared" si="42"/>
+        <v>40608</v>
+      </c>
+      <c r="C1163" s="2">
+        <f t="shared" si="37"/>
+        <v>40607</v>
+      </c>
+      <c r="D1163" s="1">
+        <v>62</v>
+      </c>
+      <c r="E1163" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6">
+      <c r="A1164">
+        <f t="shared" ref="A1164:B1164" si="43">A1163+1</f>
+        <v>432</v>
+      </c>
+      <c r="B1164" s="2">
+        <f t="shared" si="43"/>
+        <v>40609</v>
+      </c>
+      <c r="C1164" s="2">
+        <f t="shared" si="37"/>
+        <v>40608</v>
+      </c>
+      <c r="E1164" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1164" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6">
+      <c r="A1165">
+        <f t="shared" ref="A1165:B1165" si="44">A1164+1</f>
+        <v>433</v>
+      </c>
+      <c r="B1165" s="2">
+        <f t="shared" si="44"/>
+        <v>40610</v>
+      </c>
+      <c r="C1165" s="2">
+        <f t="shared" si="37"/>
+        <v>40609</v>
+      </c>
+      <c r="E1165" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1165" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6">
+      <c r="A1166">
+        <f t="shared" ref="A1166:B1166" si="45">A1165+1</f>
+        <v>434</v>
+      </c>
+      <c r="B1166" s="2">
+        <f t="shared" si="45"/>
+        <v>40611</v>
+      </c>
+      <c r="C1166" s="2">
+        <f t="shared" si="37"/>
+        <v>40610</v>
+      </c>
+      <c r="E1166" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1166" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6">
+      <c r="A1167">
+        <f t="shared" ref="A1167:B1167" si="46">A1166+1</f>
+        <v>435</v>
+      </c>
+      <c r="B1167" s="2">
+        <f t="shared" si="46"/>
+        <v>40612</v>
+      </c>
+      <c r="C1167" s="2">
+        <f t="shared" si="37"/>
+        <v>40611</v>
+      </c>
+      <c r="E1167" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6">
+      <c r="A1168">
+        <f t="shared" ref="A1168:B1168" si="47">A1167+1</f>
+        <v>436</v>
+      </c>
+      <c r="B1168" s="2">
+        <f t="shared" si="47"/>
+        <v>40613</v>
+      </c>
+      <c r="C1168" s="2">
+        <f t="shared" si="37"/>
+        <v>40612</v>
+      </c>
+      <c r="E1168" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169">
+        <f t="shared" ref="A1169:B1169" si="48">A1168+1</f>
+        <v>437</v>
+      </c>
+      <c r="B1169" s="2">
+        <f t="shared" si="48"/>
+        <v>40614</v>
+      </c>
+      <c r="C1169" s="2">
+        <f t="shared" si="37"/>
+        <v>40613</v>
+      </c>
+      <c r="E1169" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170">
+        <f t="shared" ref="A1170:B1170" si="49">A1169+1</f>
+        <v>438</v>
+      </c>
+      <c r="B1170" s="2">
+        <f t="shared" si="49"/>
+        <v>40615</v>
+      </c>
+      <c r="C1170" s="2">
+        <f t="shared" si="37"/>
+        <v>40614</v>
+      </c>
+      <c r="E1170" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B1:C783">
     <sortCondition ref="B1:B783"/>
   </sortState>
-  <conditionalFormatting sqref="E1:E855 E1099:E1048576">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="E1:E855 E1171:E1048576">
+    <cfRule type="containsText" dxfId="73" priority="93" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E856:E885">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="72" priority="92" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E856)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E886:E890">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="71" priority="91" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E886)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E891:E920">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="70" priority="90" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E891)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E921:E925">
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="69" priority="89" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E921)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E926:E955">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="68" priority="88" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E926)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E956:E960">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="67" priority="87" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E956)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E961:E990">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="66" priority="86" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E961)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E991:E995">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="65" priority="85" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E991)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E996:E1025">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="64" priority="84" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E996)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1026:E1030">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="63" priority="83" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E1026)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1031:E1060">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="62" priority="82" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E1031)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1061:E1065">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="61" priority="81" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E1061)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1066:E1095">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="60" priority="80" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E1066)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1096:E1098">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="59" priority="79" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E1096)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1099">
+    <cfRule type="containsText" dxfId="58" priority="77" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1099)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1124">
+    <cfRule type="containsText" dxfId="57" priority="76" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1166">
+    <cfRule type="containsText" dxfId="56" priority="75" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1166)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1100">
+    <cfRule type="containsText" dxfId="55" priority="74" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1100)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1103">
+    <cfRule type="containsText" dxfId="54" priority="73" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1104">
+    <cfRule type="containsText" dxfId="53" priority="72" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1105">
+    <cfRule type="containsText" dxfId="52" priority="71" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1106:E1107">
+    <cfRule type="containsText" dxfId="51" priority="70" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1120">
+    <cfRule type="containsText" dxfId="50" priority="60" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1110">
+    <cfRule type="containsText" dxfId="49" priority="68" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1111">
+    <cfRule type="containsText" dxfId="48" priority="67" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1112:E1114">
+    <cfRule type="containsText" dxfId="47" priority="66" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1125">
+    <cfRule type="containsText" dxfId="46" priority="56" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1117">
+    <cfRule type="containsText" dxfId="45" priority="63" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1118">
+    <cfRule type="containsText" dxfId="44" priority="62" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1119">
+    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1121">
+    <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1121)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1131">
+    <cfRule type="containsText" dxfId="41" priority="50" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1126">
+    <cfRule type="containsText" dxfId="40" priority="55" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1127">
+    <cfRule type="containsText" dxfId="39" priority="54" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1128">
+    <cfRule type="containsText" dxfId="38" priority="53" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1135">
+    <cfRule type="containsText" dxfId="37" priority="46" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1132">
+    <cfRule type="containsText" dxfId="36" priority="49" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1133">
+    <cfRule type="containsText" dxfId="35" priority="48" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1134">
+    <cfRule type="containsText" dxfId="34" priority="47" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1141">
+    <cfRule type="containsText" dxfId="33" priority="40" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1141)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1142">
+    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1142)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1138">
+    <cfRule type="containsText" dxfId="31" priority="43" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1139">
+    <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1140">
+    <cfRule type="containsText" dxfId="29" priority="41" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1140)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1147">
+    <cfRule type="containsText" dxfId="28" priority="34" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1147)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1148">
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1148)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1145">
+    <cfRule type="containsText" dxfId="26" priority="36" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1145)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1146">
+    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1146)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1149">
+    <cfRule type="containsText" dxfId="24" priority="32" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1149)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1153">
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1153)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1154">
+    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1154)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1152">
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1152)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1155">
+    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1155)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1156">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1156)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1159">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1159)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1160">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1160)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1161">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1161)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1162">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1162)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1163">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1163)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1167">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1167)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1168">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1168)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1169">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1169)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1170">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1170)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1101:E1102">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1108:E1109">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1115:E1116">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1122:E1123">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1129:E1130">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1136:E1137">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1143:E1144">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1150:E1151">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1150)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1157:E1158">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1157)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1164:E1165">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E1164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Alljob.xlsx
+++ b/Alljob.xlsx
@@ -950,107 +950,7 @@
     <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2121,8 +2021,8 @@
   <dimension ref="A1:F1170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A715" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E725" sqref="E725"/>
+      <pane ySplit="1" topLeftCell="A909" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D937" sqref="D937"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
